--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="228">
   <si>
     <t>ID</t>
   </si>
@@ -691,6 +691,30 @@
   </si>
   <si>
     <t>寄给你的风丶</t>
+  </si>
+  <si>
+    <t>蘃</t>
+  </si>
+  <si>
+    <t>隔花初见君一笑</t>
+  </si>
+  <si>
+    <t>独孤杀生</t>
+  </si>
+  <si>
+    <t>破烂刀客</t>
+  </si>
+  <si>
+    <t>神荼夜</t>
+  </si>
+  <si>
+    <t>首领之傲毛润之</t>
+  </si>
+  <si>
+    <t>神刀距离</t>
+  </si>
+  <si>
+    <t>浩浩丶浩</t>
   </si>
 </sst>
 </file>
@@ -746,7 +770,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -781,6 +805,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1071,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="Q122" sqref="Q122"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,37 +1116,37 @@
     <col min="13" max="13" width="6" style="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="E1" s="15" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="E1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="I1" s="15" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="I1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="M1" s="15" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="M1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="Q1" s="15" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="Q1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -1158,7 +1185,7 @@
       <c r="O2" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="R2" t="s">
@@ -1193,6 +1220,12 @@
       <c r="N3" s="12" t="s">
         <v>30</v>
       </c>
+      <c r="Q3" s="15">
+        <v>1</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
@@ -1219,6 +1252,12 @@
       <c r="N4" s="12" t="s">
         <v>31</v>
       </c>
+      <c r="Q4" s="15">
+        <v>2</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -1245,6 +1284,12 @@
       <c r="N5" s="12" t="s">
         <v>150</v>
       </c>
+      <c r="Q5" s="15">
+        <v>3</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -1271,6 +1316,12 @@
       <c r="N6" s="12" t="s">
         <v>149</v>
       </c>
+      <c r="Q6" s="15">
+        <v>4</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -1297,6 +1348,12 @@
       <c r="N7" s="12" t="s">
         <v>202</v>
       </c>
+      <c r="Q7" s="15">
+        <v>5</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -1323,6 +1380,12 @@
       <c r="N8" s="12" t="s">
         <v>38</v>
       </c>
+      <c r="Q8" s="15">
+        <v>6</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -1349,6 +1412,12 @@
       <c r="N9" s="12" t="s">
         <v>151</v>
       </c>
+      <c r="Q9" s="15">
+        <v>7</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
@@ -1375,6 +1444,12 @@
       <c r="N10" s="12" t="s">
         <v>56</v>
       </c>
+      <c r="Q10" s="15">
+        <v>8</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
@@ -1401,6 +1476,12 @@
       <c r="N11" s="12" t="s">
         <v>180</v>
       </c>
+      <c r="Q11" s="15">
+        <v>9</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
@@ -1427,6 +1508,12 @@
       <c r="N12" s="12" t="s">
         <v>116</v>
       </c>
+      <c r="Q12" s="15">
+        <v>10</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
@@ -1453,6 +1540,12 @@
       <c r="N13" s="12" t="s">
         <v>157</v>
       </c>
+      <c r="Q13" s="15">
+        <v>11</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
@@ -1479,6 +1572,12 @@
       <c r="N14" s="12" t="s">
         <v>59</v>
       </c>
+      <c r="Q14" s="15">
+        <v>12</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
@@ -1505,6 +1604,12 @@
       <c r="N15" s="12" t="s">
         <v>126</v>
       </c>
+      <c r="Q15" s="15">
+        <v>13</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
@@ -1531,8 +1636,14 @@
       <c r="N16" s="12" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q16" s="15">
+        <v>14</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1557,8 +1668,14 @@
       <c r="N17" s="12" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q17" s="15">
+        <v>15</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -1583,8 +1700,14 @@
       <c r="N18" s="12" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q18" s="15">
+        <v>16</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -1609,8 +1732,14 @@
       <c r="N19" s="12" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q19" s="15">
+        <v>17</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -1635,8 +1764,14 @@
       <c r="N20" s="12" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q20" s="15">
+        <v>18</v>
+      </c>
+      <c r="R20" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -1661,8 +1796,14 @@
       <c r="N21" s="12" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q21" s="15">
+        <v>19</v>
+      </c>
+      <c r="R21" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -1687,8 +1828,14 @@
       <c r="N22" s="12" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q22" s="15">
+        <v>20</v>
+      </c>
+      <c r="R22" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -1713,8 +1860,14 @@
       <c r="N23" s="12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q23" s="15">
+        <v>21</v>
+      </c>
+      <c r="R23" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -1739,8 +1892,14 @@
       <c r="N24" s="12" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q24" s="15">
+        <v>22</v>
+      </c>
+      <c r="R24" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -1765,8 +1924,14 @@
       <c r="N25" s="12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q25" s="15">
+        <v>23</v>
+      </c>
+      <c r="R25" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -1791,8 +1956,14 @@
       <c r="N26" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q26" s="15">
+        <v>24</v>
+      </c>
+      <c r="R26" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -1817,8 +1988,14 @@
       <c r="N27" s="12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q27" s="15">
+        <v>25</v>
+      </c>
+      <c r="R27" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -1843,8 +2020,14 @@
       <c r="N28" s="12" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q28" s="15">
+        <v>26</v>
+      </c>
+      <c r="R28" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -1869,8 +2052,14 @@
       <c r="N29" s="12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q29" s="15">
+        <v>27</v>
+      </c>
+      <c r="R29" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -1895,8 +2084,14 @@
       <c r="N30" s="12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q30" s="15">
+        <v>28</v>
+      </c>
+      <c r="R30" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -1921,8 +2116,14 @@
       <c r="N31" s="12" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q31" s="15">
+        <v>29</v>
+      </c>
+      <c r="R31" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -1947,8 +2148,14 @@
       <c r="N32" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q32" s="15">
+        <v>30</v>
+      </c>
+      <c r="R32" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -1973,8 +2180,14 @@
       <c r="N33" s="12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q33" s="15">
+        <v>31</v>
+      </c>
+      <c r="R33" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -1999,8 +2212,14 @@
       <c r="N34" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q34" s="15">
+        <v>32</v>
+      </c>
+      <c r="R34" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>33</v>
       </c>
@@ -2025,8 +2244,14 @@
       <c r="N35" s="12" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q35" s="15">
+        <v>33</v>
+      </c>
+      <c r="R35" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -2051,8 +2276,14 @@
       <c r="N36" s="12" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q36" s="15">
+        <v>34</v>
+      </c>
+      <c r="R36" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>35</v>
       </c>
@@ -2077,8 +2308,14 @@
       <c r="N37" s="12" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q37" s="15">
+        <v>35</v>
+      </c>
+      <c r="R37" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>36</v>
       </c>
@@ -2103,8 +2340,14 @@
       <c r="N38" s="12" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q38" s="15">
+        <v>36</v>
+      </c>
+      <c r="R38" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -2129,8 +2372,14 @@
       <c r="N39" s="12" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q39" s="15">
+        <v>37</v>
+      </c>
+      <c r="R39" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -2155,8 +2404,14 @@
       <c r="N40" s="12" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q40" s="15">
+        <v>38</v>
+      </c>
+      <c r="R40" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -2181,8 +2436,14 @@
       <c r="N41" s="12" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q41" s="15">
+        <v>39</v>
+      </c>
+      <c r="R41" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -2207,8 +2468,14 @@
       <c r="N42" s="12" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q42" s="15">
+        <v>40</v>
+      </c>
+      <c r="R42" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -2233,8 +2500,14 @@
       <c r="N43" s="12" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q43" s="15">
+        <v>41</v>
+      </c>
+      <c r="R43" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -2259,8 +2532,14 @@
       <c r="N44" s="12" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q44" s="15">
+        <v>42</v>
+      </c>
+      <c r="R44" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>43</v>
       </c>
@@ -2285,8 +2564,14 @@
       <c r="N45" s="12" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q45" s="15">
+        <v>43</v>
+      </c>
+      <c r="R45" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>44</v>
       </c>
@@ -2311,8 +2596,14 @@
       <c r="N46" s="12" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q46" s="15">
+        <v>44</v>
+      </c>
+      <c r="R46" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>45</v>
       </c>
@@ -2337,8 +2628,14 @@
       <c r="N47" s="12" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q47" s="15">
+        <v>45</v>
+      </c>
+      <c r="R47" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>46</v>
       </c>
@@ -2363,8 +2660,14 @@
       <c r="N48" s="12" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q48" s="15">
+        <v>46</v>
+      </c>
+      <c r="R48" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>47</v>
       </c>
@@ -2389,8 +2692,14 @@
       <c r="N49" s="12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q49" s="15">
+        <v>47</v>
+      </c>
+      <c r="R49" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>48</v>
       </c>
@@ -2415,8 +2724,14 @@
       <c r="N50" s="12" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q50" s="15">
+        <v>48</v>
+      </c>
+      <c r="R50" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>49</v>
       </c>
@@ -2441,8 +2756,14 @@
       <c r="N51" s="12" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q51" s="15">
+        <v>49</v>
+      </c>
+      <c r="R51" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>50</v>
       </c>
@@ -2467,8 +2788,14 @@
       <c r="N52" s="12" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q52" s="15">
+        <v>50</v>
+      </c>
+      <c r="R52" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>51</v>
       </c>
@@ -2493,8 +2820,14 @@
       <c r="N53" s="12" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q53" s="15">
+        <v>51</v>
+      </c>
+      <c r="R53" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>52</v>
       </c>
@@ -2519,8 +2852,14 @@
       <c r="N54" s="12" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q54" s="15">
+        <v>52</v>
+      </c>
+      <c r="R54" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>53</v>
       </c>
@@ -2545,8 +2884,14 @@
       <c r="N55" s="12" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q55" s="15">
+        <v>53</v>
+      </c>
+      <c r="R55" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>54</v>
       </c>
@@ -2571,8 +2916,14 @@
       <c r="N56" s="12" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q56" s="15">
+        <v>54</v>
+      </c>
+      <c r="R56" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>55</v>
       </c>
@@ -2597,8 +2948,14 @@
       <c r="N57" s="12" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q57" s="15">
+        <v>55</v>
+      </c>
+      <c r="R57" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>56</v>
       </c>
@@ -2623,8 +2980,14 @@
       <c r="N58" s="12" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q58" s="15">
+        <v>56</v>
+      </c>
+      <c r="R58" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>57</v>
       </c>
@@ -2649,8 +3012,14 @@
       <c r="N59" s="12" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q59" s="15">
+        <v>57</v>
+      </c>
+      <c r="R59" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>58</v>
       </c>
@@ -2675,8 +3044,14 @@
       <c r="N60" s="12" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q60" s="15">
+        <v>58</v>
+      </c>
+      <c r="R60" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>59</v>
       </c>
@@ -2701,8 +3076,14 @@
       <c r="N61" s="12" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q61" s="15">
+        <v>59</v>
+      </c>
+      <c r="R61" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>60</v>
       </c>
@@ -2727,8 +3108,14 @@
       <c r="N62" s="12" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q62" s="15">
+        <v>60</v>
+      </c>
+      <c r="R62" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>61</v>
       </c>
@@ -2753,8 +3140,14 @@
       <c r="N63" s="12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q63" s="15">
+        <v>61</v>
+      </c>
+      <c r="R63" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>62</v>
       </c>
@@ -2779,8 +3172,14 @@
       <c r="N64" s="12" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q64" s="15">
+        <v>62</v>
+      </c>
+      <c r="R64" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>63</v>
       </c>
@@ -2805,8 +3204,14 @@
       <c r="N65" s="12" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q65" s="15">
+        <v>63</v>
+      </c>
+      <c r="R65" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>64</v>
       </c>
@@ -2831,8 +3236,14 @@
       <c r="N66" s="12" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q66" s="15">
+        <v>64</v>
+      </c>
+      <c r="R66" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>65</v>
       </c>
@@ -2857,8 +3268,14 @@
       <c r="N67" s="12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q67" s="15">
+        <v>65</v>
+      </c>
+      <c r="R67" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>66</v>
       </c>
@@ -2883,8 +3300,14 @@
       <c r="N68" s="12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q68" s="15">
+        <v>66</v>
+      </c>
+      <c r="R68" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>67</v>
       </c>
@@ -2909,8 +3332,14 @@
       <c r="N69" s="12" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q69" s="15">
+        <v>67</v>
+      </c>
+      <c r="R69" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>68</v>
       </c>
@@ -2935,8 +3364,14 @@
       <c r="N70" s="12" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q70" s="15">
+        <v>68</v>
+      </c>
+      <c r="R70" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>69</v>
       </c>
@@ -2961,8 +3396,14 @@
       <c r="N71" s="12" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q71" s="15">
+        <v>69</v>
+      </c>
+      <c r="R71" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>70</v>
       </c>
@@ -2987,8 +3428,14 @@
       <c r="N72" s="12" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q72" s="15">
+        <v>70</v>
+      </c>
+      <c r="R72" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>71</v>
       </c>
@@ -3013,8 +3460,14 @@
       <c r="N73" s="12" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q73" s="15">
+        <v>71</v>
+      </c>
+      <c r="R73" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>72</v>
       </c>
@@ -3039,8 +3492,14 @@
       <c r="N74" s="12" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q74" s="15">
+        <v>72</v>
+      </c>
+      <c r="R74" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>73</v>
       </c>
@@ -3065,8 +3524,14 @@
       <c r="N75" s="12" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q75" s="15">
+        <v>73</v>
+      </c>
+      <c r="R75" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>74</v>
       </c>
@@ -3091,8 +3556,14 @@
       <c r="N76" s="12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q76" s="15">
+        <v>74</v>
+      </c>
+      <c r="R76" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>75</v>
       </c>
@@ -3117,8 +3588,14 @@
       <c r="N77" s="12" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q77" s="15">
+        <v>75</v>
+      </c>
+      <c r="R77" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>76</v>
       </c>
@@ -3143,8 +3620,14 @@
       <c r="N78" s="12" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q78" s="15">
+        <v>76</v>
+      </c>
+      <c r="R78" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>77</v>
       </c>
@@ -3169,8 +3652,14 @@
       <c r="N79" s="12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q79" s="15">
+        <v>77</v>
+      </c>
+      <c r="R79" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>78</v>
       </c>
@@ -3195,8 +3684,14 @@
       <c r="N80" s="12" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q80" s="15">
+        <v>78</v>
+      </c>
+      <c r="R80" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>79</v>
       </c>
@@ -3215,8 +3710,14 @@
       <c r="N81" s="12" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q81" s="15">
+        <v>79</v>
+      </c>
+      <c r="R81" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>80</v>
       </c>
@@ -3235,8 +3736,14 @@
       <c r="N82" s="12" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q82" s="15">
+        <v>80</v>
+      </c>
+      <c r="R82" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>81</v>
       </c>
@@ -3255,8 +3762,14 @@
       <c r="N83" s="12" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q83" s="15">
+        <v>81</v>
+      </c>
+      <c r="R83" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>82</v>
       </c>
@@ -3275,8 +3788,14 @@
       <c r="N84" s="12" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q84" s="15">
+        <v>82</v>
+      </c>
+      <c r="R84" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>83</v>
       </c>
@@ -3295,8 +3814,14 @@
       <c r="N85" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q85" s="15">
+        <v>83</v>
+      </c>
+      <c r="R85" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>84</v>
       </c>
@@ -3315,8 +3840,14 @@
       <c r="N86" s="12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q86" s="15">
+        <v>84</v>
+      </c>
+      <c r="R86" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>85</v>
       </c>
@@ -3335,8 +3866,14 @@
       <c r="N87" s="12" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q87" s="15">
+        <v>85</v>
+      </c>
+      <c r="R87" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <v>86</v>
       </c>
@@ -3355,8 +3892,14 @@
       <c r="N88" s="12" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q88" s="15">
+        <v>86</v>
+      </c>
+      <c r="R88" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>87</v>
       </c>
@@ -3375,8 +3918,14 @@
       <c r="N89" s="12" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q89" s="15">
+        <v>87</v>
+      </c>
+      <c r="R89" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>88</v>
       </c>
@@ -3395,8 +3944,14 @@
       <c r="N90" s="12" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q90" s="15">
+        <v>88</v>
+      </c>
+      <c r="R90" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>89</v>
       </c>
@@ -3415,8 +3970,15 @@
       <c r="N91" s="12" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q91" s="15">
+        <v>89</v>
+      </c>
+      <c r="R91" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="S91" s="12"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <v>90</v>
       </c>
@@ -3436,7 +3998,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>91</v>
       </c>
@@ -3456,7 +4018,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>92</v>
       </c>
@@ -3476,7 +4038,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>93</v>
       </c>
@@ -3496,7 +4058,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>94</v>
       </c>
@@ -4018,11 +4580,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
       <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4052,19 +4614,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4127,45 +4689,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="E1" s="15" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="I1" s="15" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="I1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="M1" s="15" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="M1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
+      <c r="A2" s="17">
         <v>42464</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -821,13 +821,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="好" xfId="1" builtinId="26"/>
@@ -1403,6 +1403,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2313,7 +2314,7 @@
   <dimension ref="A1:S134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P88" sqref="P88"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2336,31 +2337,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="E1" s="32" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="E1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="I1" s="32" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="I1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="M1" s="32" t="s">
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="M1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="Q1" s="32" t="s">
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="Q1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="8" t="s">
@@ -2427,7 +2428,7 @@
       <c r="I3" s="31">
         <v>1</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="32" t="s">
         <v>110</v>
       </c>
       <c r="K3" s="16"/>
@@ -2454,7 +2455,7 @@
       <c r="I4" s="31">
         <v>2</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="32" t="s">
         <v>197</v>
       </c>
       <c r="K4" s="16"/>
@@ -2481,7 +2482,7 @@
       <c r="I5" s="31">
         <v>3</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="J5" s="32" t="s">
         <v>67</v>
       </c>
       <c r="K5" s="16"/>
@@ -2508,7 +2509,7 @@
       <c r="I6" s="31">
         <v>4</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="32" t="s">
         <v>164</v>
       </c>
       <c r="K6" s="16"/>
@@ -2535,7 +2536,7 @@
       <c r="I7" s="31">
         <v>5</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="32" t="s">
         <v>204</v>
       </c>
       <c r="K7" s="16"/>
@@ -2562,7 +2563,7 @@
       <c r="I8" s="31">
         <v>6</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="32" t="s">
         <v>176</v>
       </c>
       <c r="K8" s="16"/>
@@ -2589,7 +2590,7 @@
       <c r="I9" s="31">
         <v>7</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J9" s="32" t="s">
         <v>170</v>
       </c>
       <c r="K9" s="16"/>
@@ -2616,7 +2617,7 @@
       <c r="I10" s="31">
         <v>8</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="32" t="s">
         <v>87</v>
       </c>
       <c r="K10" s="16"/>
@@ -2643,7 +2644,7 @@
       <c r="I11" s="31">
         <v>9</v>
       </c>
-      <c r="J11" s="34" t="s">
+      <c r="J11" s="32" t="s">
         <v>137</v>
       </c>
       <c r="K11" s="16"/>
@@ -2670,7 +2671,7 @@
       <c r="I12" s="31">
         <v>10</v>
       </c>
-      <c r="J12" s="34" t="s">
+      <c r="J12" s="32" t="s">
         <v>55</v>
       </c>
       <c r="K12" s="16"/>
@@ -2697,7 +2698,7 @@
       <c r="I13" s="31">
         <v>11</v>
       </c>
-      <c r="J13" s="34" t="s">
+      <c r="J13" s="32" t="s">
         <v>73</v>
       </c>
       <c r="K13" s="16"/>
@@ -2724,7 +2725,7 @@
       <c r="I14" s="31">
         <v>12</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="32" t="s">
         <v>103</v>
       </c>
       <c r="K14" s="16"/>
@@ -2751,7 +2752,7 @@
       <c r="I15" s="31">
         <v>13</v>
       </c>
-      <c r="J15" s="34" t="s">
+      <c r="J15" s="32" t="s">
         <v>62</v>
       </c>
       <c r="K15" s="16"/>
@@ -2778,7 +2779,7 @@
       <c r="I16" s="31">
         <v>14</v>
       </c>
-      <c r="J16" s="34" t="s">
+      <c r="J16" s="32" t="s">
         <v>133</v>
       </c>
       <c r="K16" s="16"/>
@@ -2805,7 +2806,7 @@
       <c r="I17" s="31">
         <v>15</v>
       </c>
-      <c r="J17" s="34" t="s">
+      <c r="J17" s="32" t="s">
         <v>169</v>
       </c>
       <c r="K17" s="16"/>
@@ -2832,7 +2833,7 @@
       <c r="I18" s="31">
         <v>16</v>
       </c>
-      <c r="J18" s="34" t="s">
+      <c r="J18" s="32" t="s">
         <v>92</v>
       </c>
       <c r="K18" s="16"/>
@@ -2859,7 +2860,7 @@
       <c r="I19" s="31">
         <v>17</v>
       </c>
-      <c r="J19" s="34" t="s">
+      <c r="J19" s="32" t="s">
         <v>47</v>
       </c>
       <c r="K19" s="16"/>
@@ -2886,7 +2887,7 @@
       <c r="I20" s="31">
         <v>18</v>
       </c>
-      <c r="J20" s="34" t="s">
+      <c r="J20" s="32" t="s">
         <v>114</v>
       </c>
       <c r="K20" s="16"/>
@@ -2913,7 +2914,7 @@
       <c r="I21" s="31">
         <v>19</v>
       </c>
-      <c r="J21" s="34" t="s">
+      <c r="J21" s="32" t="s">
         <v>53</v>
       </c>
       <c r="K21" s="16"/>
@@ -2940,7 +2941,7 @@
       <c r="I22" s="31">
         <v>20</v>
       </c>
-      <c r="J22" s="34" t="s">
+      <c r="J22" s="32" t="s">
         <v>100</v>
       </c>
       <c r="K22" s="16"/>
@@ -2967,7 +2968,7 @@
       <c r="I23" s="31">
         <v>21</v>
       </c>
-      <c r="J23" s="34" t="s">
+      <c r="J23" s="32" t="s">
         <v>174</v>
       </c>
       <c r="K23" s="16"/>
@@ -2994,7 +2995,7 @@
       <c r="I24" s="31">
         <v>22</v>
       </c>
-      <c r="J24" s="34" t="s">
+      <c r="J24" s="32" t="s">
         <v>108</v>
       </c>
       <c r="K24" s="16"/>
@@ -3021,7 +3022,7 @@
       <c r="I25" s="31">
         <v>23</v>
       </c>
-      <c r="J25" s="34" t="s">
+      <c r="J25" s="32" t="s">
         <v>27</v>
       </c>
       <c r="K25" s="16"/>
@@ -3048,7 +3049,7 @@
       <c r="I26" s="31">
         <v>24</v>
       </c>
-      <c r="J26" s="34" t="s">
+      <c r="J26" s="32" t="s">
         <v>180</v>
       </c>
       <c r="K26" s="16"/>
@@ -3075,7 +3076,7 @@
       <c r="I27" s="31">
         <v>25</v>
       </c>
-      <c r="J27" s="34" t="s">
+      <c r="J27" s="32" t="s">
         <v>199</v>
       </c>
       <c r="K27" s="16"/>
@@ -3102,7 +3103,7 @@
       <c r="I28" s="31">
         <v>26</v>
       </c>
-      <c r="J28" s="34" t="s">
+      <c r="J28" s="32" t="s">
         <v>151</v>
       </c>
       <c r="K28" s="16"/>
@@ -3129,7 +3130,7 @@
       <c r="I29" s="31">
         <v>27</v>
       </c>
-      <c r="J29" s="34" t="s">
+      <c r="J29" s="32" t="s">
         <v>161</v>
       </c>
       <c r="K29" s="16"/>
@@ -3156,7 +3157,7 @@
       <c r="I30" s="31">
         <v>28</v>
       </c>
-      <c r="J30" s="34" t="s">
+      <c r="J30" s="32" t="s">
         <v>64</v>
       </c>
       <c r="K30" s="16"/>
@@ -3183,7 +3184,7 @@
       <c r="I31" s="31">
         <v>29</v>
       </c>
-      <c r="J31" s="34" t="s">
+      <c r="J31" s="32" t="s">
         <v>179</v>
       </c>
       <c r="K31" s="16"/>
@@ -3210,7 +3211,7 @@
       <c r="I32" s="31">
         <v>30</v>
       </c>
-      <c r="J32" s="34" t="s">
+      <c r="J32" s="32" t="s">
         <v>123</v>
       </c>
       <c r="K32" s="16"/>
@@ -3237,7 +3238,7 @@
       <c r="I33" s="31">
         <v>31</v>
       </c>
-      <c r="J33" s="34" t="s">
+      <c r="J33" s="32" t="s">
         <v>119</v>
       </c>
       <c r="K33" s="16"/>
@@ -3264,7 +3265,7 @@
       <c r="I34" s="31">
         <v>32</v>
       </c>
-      <c r="J34" s="34" t="s">
+      <c r="J34" s="32" t="s">
         <v>100</v>
       </c>
       <c r="K34" s="16"/>
@@ -3291,7 +3292,7 @@
       <c r="I35" s="31">
         <v>33</v>
       </c>
-      <c r="J35" s="34" t="s">
+      <c r="J35" s="32" t="s">
         <v>191</v>
       </c>
       <c r="K35" s="16"/>
@@ -3318,7 +3319,7 @@
       <c r="I36" s="31">
         <v>34</v>
       </c>
-      <c r="J36" s="34" t="s">
+      <c r="J36" s="32" t="s">
         <v>106</v>
       </c>
       <c r="K36" s="16"/>
@@ -3345,7 +3346,7 @@
       <c r="I37" s="31">
         <v>35</v>
       </c>
-      <c r="J37" s="34" t="s">
+      <c r="J37" s="32" t="s">
         <v>177</v>
       </c>
       <c r="K37" s="16"/>
@@ -3372,7 +3373,7 @@
       <c r="I38" s="31">
         <v>36</v>
       </c>
-      <c r="J38" s="34" t="s">
+      <c r="J38" s="32" t="s">
         <v>206</v>
       </c>
       <c r="K38" s="16"/>
@@ -3399,7 +3400,7 @@
       <c r="I39" s="31">
         <v>37</v>
       </c>
-      <c r="J39" s="34" t="s">
+      <c r="J39" s="32" t="s">
         <v>161</v>
       </c>
       <c r="K39" s="16"/>
@@ -3426,7 +3427,7 @@
       <c r="I40" s="31">
         <v>38</v>
       </c>
-      <c r="J40" s="34" t="s">
+      <c r="J40" s="32" t="s">
         <v>78</v>
       </c>
       <c r="K40" s="16"/>
@@ -3453,7 +3454,7 @@
       <c r="I41" s="31">
         <v>39</v>
       </c>
-      <c r="J41" s="34" t="s">
+      <c r="J41" s="32" t="s">
         <v>208</v>
       </c>
       <c r="K41" s="16"/>
@@ -3480,7 +3481,7 @@
       <c r="I42" s="31">
         <v>40</v>
       </c>
-      <c r="J42" s="34" t="s">
+      <c r="J42" s="32" t="s">
         <v>112</v>
       </c>
       <c r="K42" s="16"/>
@@ -3507,7 +3508,7 @@
       <c r="I43" s="31">
         <v>41</v>
       </c>
-      <c r="J43" s="34" t="s">
+      <c r="J43" s="32" t="s">
         <v>94</v>
       </c>
       <c r="K43" s="16"/>
@@ -3534,7 +3535,7 @@
       <c r="I44" s="31">
         <v>42</v>
       </c>
-      <c r="J44" s="34" t="s">
+      <c r="J44" s="32" t="s">
         <v>115</v>
       </c>
       <c r="K44" s="16"/>
@@ -3561,7 +3562,7 @@
       <c r="I45" s="31">
         <v>43</v>
       </c>
-      <c r="J45" s="34" t="s">
+      <c r="J45" s="32" t="s">
         <v>101</v>
       </c>
       <c r="K45" s="16"/>
@@ -3588,7 +3589,7 @@
       <c r="I46" s="31">
         <v>44</v>
       </c>
-      <c r="J46" s="34" t="s">
+      <c r="J46" s="32" t="s">
         <v>131</v>
       </c>
       <c r="K46" s="16"/>
@@ -3615,7 +3616,7 @@
       <c r="I47" s="31">
         <v>45</v>
       </c>
-      <c r="J47" s="34" t="s">
+      <c r="J47" s="32" t="s">
         <v>171</v>
       </c>
       <c r="K47" s="16"/>
@@ -3642,7 +3643,7 @@
       <c r="I48" s="31">
         <v>46</v>
       </c>
-      <c r="J48" s="34" t="s">
+      <c r="J48" s="32" t="s">
         <v>207</v>
       </c>
       <c r="K48" s="16"/>
@@ -3669,7 +3670,7 @@
       <c r="I49" s="31">
         <v>47</v>
       </c>
-      <c r="J49" s="34" t="s">
+      <c r="J49" s="32" t="s">
         <v>79</v>
       </c>
       <c r="K49" s="16"/>
@@ -3696,7 +3697,7 @@
       <c r="I50" s="31">
         <v>48</v>
       </c>
-      <c r="J50" s="34" t="s">
+      <c r="J50" s="32" t="s">
         <v>175</v>
       </c>
       <c r="K50" s="16"/>
@@ -3723,7 +3724,7 @@
       <c r="I51" s="31">
         <v>49</v>
       </c>
-      <c r="J51" s="34" t="s">
+      <c r="J51" s="32" t="s">
         <v>212</v>
       </c>
       <c r="K51" s="16"/>
@@ -3750,7 +3751,7 @@
       <c r="I52" s="31">
         <v>50</v>
       </c>
-      <c r="J52" s="34" t="s">
+      <c r="J52" s="32" t="s">
         <v>77</v>
       </c>
       <c r="K52" s="16"/>
@@ -3777,7 +3778,7 @@
       <c r="I53" s="31">
         <v>51</v>
       </c>
-      <c r="J53" s="34" t="s">
+      <c r="J53" s="32" t="s">
         <v>195</v>
       </c>
       <c r="K53" s="16"/>
@@ -3804,7 +3805,7 @@
       <c r="I54" s="31">
         <v>52</v>
       </c>
-      <c r="J54" s="34" t="s">
+      <c r="J54" s="32" t="s">
         <v>165</v>
       </c>
       <c r="K54" s="16"/>
@@ -3831,7 +3832,7 @@
       <c r="I55" s="31">
         <v>53</v>
       </c>
-      <c r="J55" s="34" t="s">
+      <c r="J55" s="32" t="s">
         <v>211</v>
       </c>
       <c r="K55" s="16"/>
@@ -3858,7 +3859,7 @@
       <c r="I56" s="31">
         <v>54</v>
       </c>
-      <c r="J56" s="34" t="s">
+      <c r="J56" s="32" t="s">
         <v>49</v>
       </c>
       <c r="K56" s="16"/>
@@ -3885,7 +3886,7 @@
       <c r="I57" s="31">
         <v>55</v>
       </c>
-      <c r="J57" s="34" t="s">
+      <c r="J57" s="32" t="s">
         <v>99</v>
       </c>
       <c r="K57" s="16"/>
@@ -3912,7 +3913,7 @@
       <c r="I58" s="31">
         <v>56</v>
       </c>
-      <c r="J58" s="34" t="s">
+      <c r="J58" s="32" t="s">
         <v>209</v>
       </c>
       <c r="K58" s="16"/>
@@ -3939,7 +3940,7 @@
       <c r="I59" s="31">
         <v>57</v>
       </c>
-      <c r="J59" s="34" t="s">
+      <c r="J59" s="32" t="s">
         <v>98</v>
       </c>
       <c r="K59" s="16"/>
@@ -3966,7 +3967,7 @@
       <c r="I60" s="31">
         <v>58</v>
       </c>
-      <c r="J60" s="34" t="s">
+      <c r="J60" s="32" t="s">
         <v>178</v>
       </c>
       <c r="K60" s="16"/>
@@ -3993,7 +3994,7 @@
       <c r="I61" s="31">
         <v>59</v>
       </c>
-      <c r="J61" s="34" t="s">
+      <c r="J61" s="32" t="s">
         <v>118</v>
       </c>
       <c r="K61" s="16"/>
@@ -4020,7 +4021,7 @@
       <c r="I62" s="31">
         <v>60</v>
       </c>
-      <c r="J62" s="34" t="s">
+      <c r="J62" s="32" t="s">
         <v>134</v>
       </c>
       <c r="K62" s="16"/>
@@ -4047,7 +4048,7 @@
       <c r="I63" s="31">
         <v>61</v>
       </c>
-      <c r="J63" s="34" t="s">
+      <c r="J63" s="32" t="s">
         <v>51</v>
       </c>
       <c r="K63" s="16"/>
@@ -4074,7 +4075,7 @@
       <c r="I64" s="31">
         <v>62</v>
       </c>
-      <c r="J64" s="34" t="s">
+      <c r="J64" s="32" t="s">
         <v>96</v>
       </c>
       <c r="K64" s="16"/>
@@ -4101,7 +4102,7 @@
       <c r="I65" s="31">
         <v>63</v>
       </c>
-      <c r="J65" s="34" t="s">
+      <c r="J65" s="32" t="s">
         <v>146</v>
       </c>
       <c r="K65" s="16"/>
@@ -4128,7 +4129,7 @@
       <c r="I66" s="31">
         <v>64</v>
       </c>
-      <c r="J66" s="34" t="s">
+      <c r="J66" s="32" t="s">
         <v>89</v>
       </c>
       <c r="K66" s="16"/>
@@ -4155,7 +4156,7 @@
       <c r="I67" s="31">
         <v>65</v>
       </c>
-      <c r="J67" s="34" t="s">
+      <c r="J67" s="32" t="s">
         <v>72</v>
       </c>
       <c r="K67" s="16"/>
@@ -4182,7 +4183,7 @@
       <c r="I68" s="31">
         <v>66</v>
       </c>
-      <c r="J68" s="34" t="s">
+      <c r="J68" s="32" t="s">
         <v>210</v>
       </c>
       <c r="K68" s="16"/>
@@ -4209,7 +4210,7 @@
       <c r="I69" s="31">
         <v>67</v>
       </c>
-      <c r="J69" s="34" t="s">
+      <c r="J69" s="32" t="s">
         <v>90</v>
       </c>
       <c r="K69" s="16"/>
@@ -4236,7 +4237,7 @@
       <c r="I70" s="31">
         <v>68</v>
       </c>
-      <c r="J70" s="34" t="s">
+      <c r="J70" s="32" t="s">
         <v>150</v>
       </c>
       <c r="K70" s="16"/>
@@ -4263,7 +4264,7 @@
       <c r="I71" s="31">
         <v>69</v>
       </c>
-      <c r="J71" s="34" t="s">
+      <c r="J71" s="32" t="s">
         <v>65</v>
       </c>
       <c r="K71" s="16"/>
@@ -4290,7 +4291,7 @@
       <c r="I72" s="31">
         <v>70</v>
       </c>
-      <c r="J72" s="34" t="s">
+      <c r="J72" s="32" t="s">
         <v>52</v>
       </c>
       <c r="K72" s="16"/>
@@ -4317,7 +4318,7 @@
       <c r="I73" s="31">
         <v>71</v>
       </c>
-      <c r="J73" s="34" t="s">
+      <c r="J73" s="32" t="s">
         <v>81</v>
       </c>
       <c r="K73" s="16"/>
@@ -4344,7 +4345,7 @@
       <c r="I74" s="31">
         <v>72</v>
       </c>
-      <c r="J74" s="34" t="s">
+      <c r="J74" s="32" t="s">
         <v>167</v>
       </c>
       <c r="K74" s="16"/>
@@ -4371,7 +4372,7 @@
       <c r="I75" s="31">
         <v>73</v>
       </c>
-      <c r="J75" s="34" t="s">
+      <c r="J75" s="32" t="s">
         <v>214</v>
       </c>
       <c r="K75" s="16"/>
@@ -4398,7 +4399,7 @@
       <c r="I76" s="31">
         <v>74</v>
       </c>
-      <c r="J76" s="34" t="s">
+      <c r="J76" s="32" t="s">
         <v>166</v>
       </c>
       <c r="K76" s="16"/>
@@ -4425,7 +4426,7 @@
       <c r="I77" s="31">
         <v>75</v>
       </c>
-      <c r="J77" s="34" t="s">
+      <c r="J77" s="32" t="s">
         <v>213</v>
       </c>
       <c r="K77" s="16"/>
@@ -4452,7 +4453,7 @@
       <c r="I78" s="31">
         <v>76</v>
       </c>
-      <c r="J78" s="34" t="s">
+      <c r="J78" s="32" t="s">
         <v>183</v>
       </c>
       <c r="K78" s="16"/>
@@ -4479,7 +4480,7 @@
       <c r="I79" s="31">
         <v>77</v>
       </c>
-      <c r="J79" s="34" t="s">
+      <c r="J79" s="32" t="s">
         <v>216</v>
       </c>
       <c r="K79" s="16"/>
@@ -4506,7 +4507,7 @@
       <c r="I80" s="31">
         <v>78</v>
       </c>
-      <c r="J80" s="34" t="s">
+      <c r="J80" s="32" t="s">
         <v>46</v>
       </c>
       <c r="K80" s="16"/>
@@ -4532,7 +4533,7 @@
       <c r="I81" s="31">
         <v>79</v>
       </c>
-      <c r="J81" s="34" t="s">
+      <c r="J81" s="32" t="s">
         <v>144</v>
       </c>
       <c r="K81" s="16"/>
@@ -4558,7 +4559,7 @@
       <c r="I82" s="31">
         <v>80</v>
       </c>
-      <c r="J82" s="34" t="s">
+      <c r="J82" s="32" t="s">
         <v>107</v>
       </c>
       <c r="K82" s="16"/>
@@ -4584,7 +4585,7 @@
       <c r="I83" s="31">
         <v>81</v>
       </c>
-      <c r="J83" s="34" t="s">
+      <c r="J83" s="32" t="s">
         <v>56</v>
       </c>
       <c r="K83" s="16"/>
@@ -4610,7 +4611,7 @@
       <c r="I84" s="31">
         <v>82</v>
       </c>
-      <c r="J84" s="34" t="s">
+      <c r="J84" s="32" t="s">
         <v>109</v>
       </c>
       <c r="K84" s="16"/>
@@ -4636,7 +4637,7 @@
       <c r="I85" s="31">
         <v>83</v>
       </c>
-      <c r="J85" s="34" t="s">
+      <c r="J85" s="32" t="s">
         <v>163</v>
       </c>
       <c r="K85" s="16"/>
@@ -4662,7 +4663,7 @@
       <c r="I86" s="31">
         <v>84</v>
       </c>
-      <c r="J86" s="34" t="s">
+      <c r="J86" s="32" t="s">
         <v>104</v>
       </c>
       <c r="K86" s="16"/>
@@ -4688,7 +4689,7 @@
       <c r="I87" s="31">
         <v>85</v>
       </c>
-      <c r="J87" s="34" t="s">
+      <c r="J87" s="32" t="s">
         <v>30</v>
       </c>
       <c r="K87" s="16"/>
@@ -4714,7 +4715,7 @@
       <c r="I88" s="31">
         <v>86</v>
       </c>
-      <c r="J88" s="34" t="s">
+      <c r="J88" s="32" t="s">
         <v>28</v>
       </c>
       <c r="K88" s="16"/>
@@ -4740,7 +4741,7 @@
       <c r="I89" s="31">
         <v>87</v>
       </c>
-      <c r="J89" s="34" t="s">
+      <c r="J89" s="32" t="s">
         <v>50</v>
       </c>
       <c r="K89" s="16"/>
@@ -4766,7 +4767,7 @@
       <c r="I90" s="31">
         <v>88</v>
       </c>
-      <c r="J90" s="34" t="s">
+      <c r="J90" s="32" t="s">
         <v>129</v>
       </c>
       <c r="K90" s="16"/>
@@ -4792,7 +4793,7 @@
       <c r="I91" s="31">
         <v>89</v>
       </c>
-      <c r="J91" s="34" t="s">
+      <c r="J91" s="32" t="s">
         <v>156</v>
       </c>
       <c r="K91" s="16"/>
@@ -4818,7 +4819,7 @@
       <c r="I92" s="31">
         <v>90</v>
       </c>
-      <c r="J92" s="34" t="s">
+      <c r="J92" s="32" t="s">
         <v>187</v>
       </c>
       <c r="K92" s="16"/>
@@ -4842,7 +4843,7 @@
       <c r="I93" s="31">
         <v>91</v>
       </c>
-      <c r="J93" s="34" t="s">
+      <c r="J93" s="32" t="s">
         <v>58</v>
       </c>
       <c r="K93" s="16"/>
@@ -4866,7 +4867,7 @@
       <c r="I94" s="31">
         <v>92</v>
       </c>
-      <c r="J94" s="34" t="s">
+      <c r="J94" s="32" t="s">
         <v>66</v>
       </c>
       <c r="K94" s="16"/>
@@ -4890,7 +4891,7 @@
       <c r="I95" s="31">
         <v>93</v>
       </c>
-      <c r="J95" s="34" t="s">
+      <c r="J95" s="32" t="s">
         <v>184</v>
       </c>
       <c r="K95" s="16"/>
@@ -4914,7 +4915,7 @@
       <c r="I96" s="31">
         <v>94</v>
       </c>
-      <c r="J96" s="34" t="s">
+      <c r="J96" s="32" t="s">
         <v>215</v>
       </c>
       <c r="K96" s="16"/>
@@ -4938,7 +4939,7 @@
       <c r="I97" s="31">
         <v>95</v>
       </c>
-      <c r="J97" s="34" t="s">
+      <c r="J97" s="32" t="s">
         <v>188</v>
       </c>
       <c r="K97" s="16"/>
@@ -4962,7 +4963,7 @@
       <c r="I98" s="31">
         <v>96</v>
       </c>
-      <c r="J98" s="34" t="s">
+      <c r="J98" s="32" t="s">
         <v>205</v>
       </c>
       <c r="K98" s="16"/>
@@ -4986,7 +4987,7 @@
       <c r="I99" s="31">
         <v>97</v>
       </c>
-      <c r="J99" s="34" t="s">
+      <c r="J99" s="32" t="s">
         <v>196</v>
       </c>
       <c r="K99" s="16"/>
@@ -5010,7 +5011,7 @@
       <c r="I100" s="31">
         <v>98</v>
       </c>
-      <c r="J100" s="34" t="s">
+      <c r="J100" s="32" t="s">
         <v>82</v>
       </c>
       <c r="K100" s="16"/>
@@ -5034,7 +5035,7 @@
       <c r="I101" s="31">
         <v>99</v>
       </c>
-      <c r="J101" s="34" t="s">
+      <c r="J101" s="32" t="s">
         <v>157</v>
       </c>
       <c r="K101" s="16"/>
@@ -5058,7 +5059,7 @@
       <c r="I102" s="31">
         <v>100</v>
       </c>
-      <c r="J102" s="34" t="s">
+      <c r="J102" s="32" t="s">
         <v>186</v>
       </c>
       <c r="K102" s="16"/>
@@ -5549,11 +5550,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
       <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4">
@@ -5853,19 +5854,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
       <c r="K1" s="14" t="s">
         <v>31</v>
       </c>
@@ -6652,45 +6653,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="E1" s="32" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="I1" s="32" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="I1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="M1" s="32" t="s">
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="M1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="33">
+      <c r="A2" s="34">
         <v>42464</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
@@ -13188,8 +13189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13273,14 +13274,14 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="掠夺总榜" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="244">
   <si>
     <t>ID</t>
   </si>
@@ -751,6 +751,18 @@
   </si>
   <si>
     <t>冷霜刃</t>
+  </si>
+  <si>
+    <t>冉灬子墨</t>
+  </si>
+  <si>
+    <t>神威司空阿龙</t>
+  </si>
+  <si>
+    <t>逆天懵</t>
+  </si>
+  <si>
+    <t>落花丶醉</t>
   </si>
 </sst>
 </file>
@@ -823,7 +835,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -890,13 +902,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2388,7 +2407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P113" sqref="P113"/>
     </sheetView>
   </sheetViews>
@@ -2412,31 +2431,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="E1" s="32" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="E1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="I1" s="32" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="M1" s="32" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="M1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="Q1" s="32" t="s">
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="Q1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="8" t="s">
@@ -2510,7 +2529,7 @@
       <c r="M3" s="9">
         <v>1</v>
       </c>
-      <c r="N3" s="35" t="s">
+      <c r="N3" s="33" t="s">
         <v>146</v>
       </c>
       <c r="O3" s="14"/>
@@ -2542,7 +2561,7 @@
       <c r="M4" s="9">
         <v>2</v>
       </c>
-      <c r="N4" s="35" t="s">
+      <c r="N4" s="33" t="s">
         <v>46</v>
       </c>
       <c r="O4" s="14"/>
@@ -2574,7 +2593,7 @@
       <c r="M5" s="9">
         <v>3</v>
       </c>
-      <c r="N5" s="35" t="s">
+      <c r="N5" s="33" t="s">
         <v>227</v>
       </c>
       <c r="O5" s="14"/>
@@ -2606,7 +2625,7 @@
       <c r="M6" s="31">
         <v>4</v>
       </c>
-      <c r="N6" s="35" t="s">
+      <c r="N6" s="33" t="s">
         <v>228</v>
       </c>
       <c r="O6" s="14"/>
@@ -2638,7 +2657,7 @@
       <c r="M7" s="31">
         <v>5</v>
       </c>
-      <c r="N7" s="35" t="s">
+      <c r="N7" s="33" t="s">
         <v>98</v>
       </c>
       <c r="O7" s="14"/>
@@ -2670,7 +2689,7 @@
       <c r="M8" s="31">
         <v>6</v>
       </c>
-      <c r="N8" s="35" t="s">
+      <c r="N8" s="33" t="s">
         <v>116</v>
       </c>
       <c r="O8" s="14"/>
@@ -2702,7 +2721,7 @@
       <c r="M9" s="31">
         <v>7</v>
       </c>
-      <c r="N9" s="35" t="s">
+      <c r="N9" s="33" t="s">
         <v>89</v>
       </c>
       <c r="O9" s="14"/>
@@ -2734,7 +2753,7 @@
       <c r="M10" s="31">
         <v>8</v>
       </c>
-      <c r="N10" s="35" t="s">
+      <c r="N10" s="33" t="s">
         <v>57</v>
       </c>
       <c r="O10" s="14"/>
@@ -2766,7 +2785,7 @@
       <c r="M11" s="31">
         <v>9</v>
       </c>
-      <c r="N11" s="35" t="s">
+      <c r="N11" s="33" t="s">
         <v>49</v>
       </c>
       <c r="O11" s="14"/>
@@ -2798,7 +2817,7 @@
       <c r="M12" s="31">
         <v>10</v>
       </c>
-      <c r="N12" s="35" t="s">
+      <c r="N12" s="33" t="s">
         <v>167</v>
       </c>
       <c r="O12" s="14"/>
@@ -2830,7 +2849,7 @@
       <c r="M13" s="31">
         <v>11</v>
       </c>
-      <c r="N13" s="35" t="s">
+      <c r="N13" s="33" t="s">
         <v>52</v>
       </c>
       <c r="O13" s="14"/>
@@ -2862,7 +2881,7 @@
       <c r="M14" s="31">
         <v>12</v>
       </c>
-      <c r="N14" s="35" t="s">
+      <c r="N14" s="33" t="s">
         <v>56</v>
       </c>
       <c r="O14" s="14"/>
@@ -2894,7 +2913,7 @@
       <c r="M15" s="31">
         <v>13</v>
       </c>
-      <c r="N15" s="35" t="s">
+      <c r="N15" s="33" t="s">
         <v>74</v>
       </c>
       <c r="O15" s="14"/>
@@ -2926,7 +2945,7 @@
       <c r="M16" s="31">
         <v>14</v>
       </c>
-      <c r="N16" s="35" t="s">
+      <c r="N16" s="33" t="s">
         <v>209</v>
       </c>
       <c r="O16" s="14"/>
@@ -2958,7 +2977,7 @@
       <c r="M17" s="31">
         <v>15</v>
       </c>
-      <c r="N17" s="35" t="s">
+      <c r="N17" s="33" t="s">
         <v>134</v>
       </c>
       <c r="O17" s="14"/>
@@ -2990,7 +3009,7 @@
       <c r="M18" s="31">
         <v>16</v>
       </c>
-      <c r="N18" s="35" t="s">
+      <c r="N18" s="33" t="s">
         <v>229</v>
       </c>
       <c r="O18" s="14"/>
@@ -3022,7 +3041,7 @@
       <c r="M19" s="31">
         <v>17</v>
       </c>
-      <c r="N19" s="35" t="s">
+      <c r="N19" s="33" t="s">
         <v>51</v>
       </c>
       <c r="O19" s="14"/>
@@ -3054,7 +3073,7 @@
       <c r="M20" s="31">
         <v>18</v>
       </c>
-      <c r="N20" s="35" t="s">
+      <c r="N20" s="33" t="s">
         <v>30</v>
       </c>
       <c r="O20" s="14"/>
@@ -3086,7 +3105,7 @@
       <c r="M21" s="31">
         <v>19</v>
       </c>
-      <c r="N21" s="35" t="s">
+      <c r="N21" s="33" t="s">
         <v>65</v>
       </c>
       <c r="O21" s="14"/>
@@ -3118,7 +3137,7 @@
       <c r="M22" s="31">
         <v>20</v>
       </c>
-      <c r="N22" s="35" t="s">
+      <c r="N22" s="33" t="s">
         <v>139</v>
       </c>
       <c r="O22" s="14"/>
@@ -3150,7 +3169,7 @@
       <c r="M23" s="31">
         <v>21</v>
       </c>
-      <c r="N23" s="35" t="s">
+      <c r="N23" s="33" t="s">
         <v>212</v>
       </c>
       <c r="O23" s="14"/>
@@ -3182,7 +3201,7 @@
       <c r="M24" s="31">
         <v>22</v>
       </c>
-      <c r="N24" s="35" t="s">
+      <c r="N24" s="33" t="s">
         <v>144</v>
       </c>
       <c r="O24" s="14"/>
@@ -3214,7 +3233,7 @@
       <c r="M25" s="31">
         <v>23</v>
       </c>
-      <c r="N25" s="35" t="s">
+      <c r="N25" s="33" t="s">
         <v>48</v>
       </c>
       <c r="O25" s="14"/>
@@ -3246,7 +3265,7 @@
       <c r="M26" s="31">
         <v>24</v>
       </c>
-      <c r="N26" s="35" t="s">
+      <c r="N26" s="33" t="s">
         <v>183</v>
       </c>
       <c r="O26" s="14"/>
@@ -3278,7 +3297,7 @@
       <c r="M27" s="31">
         <v>25</v>
       </c>
-      <c r="N27" s="35" t="s">
+      <c r="N27" s="33" t="s">
         <v>107</v>
       </c>
       <c r="O27" s="14"/>
@@ -3310,7 +3329,7 @@
       <c r="M28" s="31">
         <v>26</v>
       </c>
-      <c r="N28" s="35" t="s">
+      <c r="N28" s="33" t="s">
         <v>230</v>
       </c>
       <c r="O28" s="14"/>
@@ -3342,7 +3361,7 @@
       <c r="M29" s="31">
         <v>27</v>
       </c>
-      <c r="N29" s="35" t="s">
+      <c r="N29" s="33" t="s">
         <v>118</v>
       </c>
       <c r="O29" s="14"/>
@@ -3374,7 +3393,7 @@
       <c r="M30" s="31">
         <v>28</v>
       </c>
-      <c r="N30" s="35" t="s">
+      <c r="N30" s="33" t="s">
         <v>90</v>
       </c>
       <c r="O30" s="14"/>
@@ -3406,7 +3425,7 @@
       <c r="M31" s="31">
         <v>29</v>
       </c>
-      <c r="N31" s="35" t="s">
+      <c r="N31" s="33" t="s">
         <v>214</v>
       </c>
       <c r="O31" s="14"/>
@@ -3438,7 +3457,7 @@
       <c r="M32" s="31">
         <v>30</v>
       </c>
-      <c r="N32" s="35" t="s">
+      <c r="N32" s="33" t="s">
         <v>99</v>
       </c>
       <c r="O32" s="14"/>
@@ -3470,7 +3489,7 @@
       <c r="M33" s="31">
         <v>31</v>
       </c>
-      <c r="N33" s="35" t="s">
+      <c r="N33" s="33" t="s">
         <v>211</v>
       </c>
       <c r="O33" s="14"/>
@@ -3502,7 +3521,7 @@
       <c r="M34" s="31">
         <v>32</v>
       </c>
-      <c r="N34" s="35" t="s">
+      <c r="N34" s="33" t="s">
         <v>150</v>
       </c>
       <c r="O34" s="14"/>
@@ -3534,7 +3553,7 @@
       <c r="M35" s="31">
         <v>33</v>
       </c>
-      <c r="N35" s="35" t="s">
+      <c r="N35" s="33" t="s">
         <v>140</v>
       </c>
       <c r="O35" s="14"/>
@@ -3566,7 +3585,7 @@
       <c r="M36" s="31">
         <v>34</v>
       </c>
-      <c r="N36" s="35" t="s">
+      <c r="N36" s="33" t="s">
         <v>129</v>
       </c>
       <c r="O36" s="14"/>
@@ -3598,7 +3617,7 @@
       <c r="M37" s="31">
         <v>35</v>
       </c>
-      <c r="N37" s="35" t="s">
+      <c r="N37" s="33" t="s">
         <v>27</v>
       </c>
       <c r="O37" s="14"/>
@@ -3630,7 +3649,7 @@
       <c r="M38" s="31">
         <v>36</v>
       </c>
-      <c r="N38" s="35" t="s">
+      <c r="N38" s="33" t="s">
         <v>60</v>
       </c>
       <c r="O38" s="14"/>
@@ -3662,7 +3681,7 @@
       <c r="M39" s="31">
         <v>37</v>
       </c>
-      <c r="N39" s="35" t="s">
+      <c r="N39" s="33" t="s">
         <v>105</v>
       </c>
       <c r="O39" s="14"/>
@@ -3694,7 +3713,7 @@
       <c r="M40" s="31">
         <v>38</v>
       </c>
-      <c r="N40" s="35" t="s">
+      <c r="N40" s="33" t="s">
         <v>162</v>
       </c>
       <c r="O40" s="14"/>
@@ -3726,7 +3745,7 @@
       <c r="M41" s="31">
         <v>39</v>
       </c>
-      <c r="N41" s="35" t="s">
+      <c r="N41" s="33" t="s">
         <v>62</v>
       </c>
       <c r="O41" s="14"/>
@@ -3758,7 +3777,7 @@
       <c r="M42" s="31">
         <v>40</v>
       </c>
-      <c r="N42" s="35" t="s">
+      <c r="N42" s="33" t="s">
         <v>84</v>
       </c>
       <c r="O42" s="14"/>
@@ -3790,7 +3809,7 @@
       <c r="M43" s="31">
         <v>41</v>
       </c>
-      <c r="N43" s="35" t="s">
+      <c r="N43" s="33" t="s">
         <v>55</v>
       </c>
       <c r="O43" s="14"/>
@@ -3822,7 +3841,7 @@
       <c r="M44" s="31">
         <v>42</v>
       </c>
-      <c r="N44" s="35" t="s">
+      <c r="N44" s="33" t="s">
         <v>170</v>
       </c>
       <c r="O44" s="14"/>
@@ -3854,7 +3873,7 @@
       <c r="M45" s="31">
         <v>43</v>
       </c>
-      <c r="N45" s="35" t="s">
+      <c r="N45" s="33" t="s">
         <v>231</v>
       </c>
       <c r="O45" s="14"/>
@@ -3886,7 +3905,7 @@
       <c r="M46" s="31">
         <v>44</v>
       </c>
-      <c r="N46" s="35" t="s">
+      <c r="N46" s="33" t="s">
         <v>53</v>
       </c>
       <c r="O46" s="14"/>
@@ -3918,7 +3937,7 @@
       <c r="M47" s="31">
         <v>45</v>
       </c>
-      <c r="N47" s="35" t="s">
+      <c r="N47" s="33" t="s">
         <v>180</v>
       </c>
       <c r="O47" s="14"/>
@@ -3950,7 +3969,7 @@
       <c r="M48" s="31">
         <v>46</v>
       </c>
-      <c r="N48" s="35" t="s">
+      <c r="N48" s="33" t="s">
         <v>63</v>
       </c>
       <c r="O48" s="14"/>
@@ -3982,7 +4001,7 @@
       <c r="M49" s="31">
         <v>47</v>
       </c>
-      <c r="N49" s="35" t="s">
+      <c r="N49" s="33" t="s">
         <v>169</v>
       </c>
       <c r="O49" s="14"/>
@@ -4014,7 +4033,7 @@
       <c r="M50" s="31">
         <v>48</v>
       </c>
-      <c r="N50" s="35" t="s">
+      <c r="N50" s="33" t="s">
         <v>176</v>
       </c>
       <c r="O50" s="14"/>
@@ -4046,7 +4065,7 @@
       <c r="M51" s="31">
         <v>49</v>
       </c>
-      <c r="N51" s="35" t="s">
+      <c r="N51" s="33" t="s">
         <v>197</v>
       </c>
       <c r="O51" s="14"/>
@@ -4078,7 +4097,7 @@
       <c r="M52" s="31">
         <v>50</v>
       </c>
-      <c r="N52" s="35" t="s">
+      <c r="N52" s="33" t="s">
         <v>119</v>
       </c>
       <c r="O52" s="14"/>
@@ -4110,7 +4129,7 @@
       <c r="M53" s="31">
         <v>51</v>
       </c>
-      <c r="N53" s="35" t="s">
+      <c r="N53" s="33" t="s">
         <v>72</v>
       </c>
       <c r="O53" s="14"/>
@@ -4142,7 +4161,7 @@
       <c r="M54" s="31">
         <v>52</v>
       </c>
-      <c r="N54" s="35" t="s">
+      <c r="N54" s="33" t="s">
         <v>199</v>
       </c>
       <c r="O54" s="14"/>
@@ -4174,7 +4193,7 @@
       <c r="M55" s="31">
         <v>53</v>
       </c>
-      <c r="N55" s="35" t="s">
+      <c r="N55" s="33" t="s">
         <v>73</v>
       </c>
       <c r="O55" s="14"/>
@@ -4206,7 +4225,7 @@
       <c r="M56" s="31">
         <v>54</v>
       </c>
-      <c r="N56" s="35" t="s">
+      <c r="N56" s="33" t="s">
         <v>232</v>
       </c>
       <c r="O56" s="14"/>
@@ -4238,7 +4257,7 @@
       <c r="M57" s="31">
         <v>55</v>
       </c>
-      <c r="N57" s="35" t="s">
+      <c r="N57" s="33" t="s">
         <v>223</v>
       </c>
       <c r="O57" s="14"/>
@@ -4270,7 +4289,7 @@
       <c r="M58" s="31">
         <v>56</v>
       </c>
-      <c r="N58" s="35" t="s">
+      <c r="N58" s="33" t="s">
         <v>204</v>
       </c>
       <c r="O58" s="14"/>
@@ -4302,7 +4321,7 @@
       <c r="M59" s="31">
         <v>57</v>
       </c>
-      <c r="N59" s="35" t="s">
+      <c r="N59" s="33" t="s">
         <v>133</v>
       </c>
       <c r="O59" s="14"/>
@@ -4334,7 +4353,7 @@
       <c r="M60" s="31">
         <v>58</v>
       </c>
-      <c r="N60" s="35" t="s">
+      <c r="N60" s="33" t="s">
         <v>233</v>
       </c>
       <c r="O60" s="14"/>
@@ -4366,7 +4385,7 @@
       <c r="M61" s="31">
         <v>59</v>
       </c>
-      <c r="N61" s="35" t="s">
+      <c r="N61" s="33" t="s">
         <v>127</v>
       </c>
       <c r="O61" s="14"/>
@@ -4398,7 +4417,7 @@
       <c r="M62" s="31">
         <v>60</v>
       </c>
-      <c r="N62" s="35" t="s">
+      <c r="N62" s="33" t="s">
         <v>149</v>
       </c>
       <c r="O62" s="14"/>
@@ -4430,7 +4449,7 @@
       <c r="M63" s="31">
         <v>61</v>
       </c>
-      <c r="N63" s="35" t="s">
+      <c r="N63" s="33" t="s">
         <v>108</v>
       </c>
       <c r="O63" s="14"/>
@@ -4462,7 +4481,7 @@
       <c r="M64" s="31">
         <v>62</v>
       </c>
-      <c r="N64" s="35" t="s">
+      <c r="N64" s="33" t="s">
         <v>114</v>
       </c>
       <c r="O64" s="14"/>
@@ -4494,7 +4513,7 @@
       <c r="M65" s="31">
         <v>63</v>
       </c>
-      <c r="N65" s="35" t="s">
+      <c r="N65" s="33" t="s">
         <v>47</v>
       </c>
       <c r="O65" s="14"/>
@@ -4526,7 +4545,7 @@
       <c r="M66" s="31">
         <v>64</v>
       </c>
-      <c r="N66" s="35" t="s">
+      <c r="N66" s="33" t="s">
         <v>143</v>
       </c>
       <c r="O66" s="14"/>
@@ -4558,7 +4577,7 @@
       <c r="M67" s="31">
         <v>65</v>
       </c>
-      <c r="N67" s="35" t="s">
+      <c r="N67" s="33" t="s">
         <v>110</v>
       </c>
       <c r="O67" s="14"/>
@@ -4590,7 +4609,7 @@
       <c r="M68" s="31">
         <v>66</v>
       </c>
-      <c r="N68" s="35" t="s">
+      <c r="N68" s="33" t="s">
         <v>200</v>
       </c>
       <c r="O68" s="14"/>
@@ -4622,7 +4641,7 @@
       <c r="M69" s="31">
         <v>67</v>
       </c>
-      <c r="N69" s="35" t="s">
+      <c r="N69" s="33" t="s">
         <v>234</v>
       </c>
       <c r="O69" s="14"/>
@@ -4654,7 +4673,7 @@
       <c r="M70" s="31">
         <v>68</v>
       </c>
-      <c r="N70" s="35" t="s">
+      <c r="N70" s="33" t="s">
         <v>64</v>
       </c>
       <c r="O70" s="14"/>
@@ -4686,7 +4705,7 @@
       <c r="M71" s="31">
         <v>69</v>
       </c>
-      <c r="N71" s="35" t="s">
+      <c r="N71" s="33" t="s">
         <v>78</v>
       </c>
       <c r="O71" s="14"/>
@@ -4718,7 +4737,7 @@
       <c r="M72" s="31">
         <v>70</v>
       </c>
-      <c r="N72" s="35" t="s">
+      <c r="N72" s="33" t="s">
         <v>175</v>
       </c>
       <c r="O72" s="14"/>
@@ -4750,7 +4769,7 @@
       <c r="M73" s="31">
         <v>71</v>
       </c>
-      <c r="N73" s="35" t="s">
+      <c r="N73" s="33" t="s">
         <v>77</v>
       </c>
       <c r="O73" s="14"/>
@@ -4782,7 +4801,7 @@
       <c r="M74" s="31">
         <v>72</v>
       </c>
-      <c r="N74" s="35" t="s">
+      <c r="N74" s="33" t="s">
         <v>208</v>
       </c>
       <c r="O74" s="14"/>
@@ -4814,7 +4833,7 @@
       <c r="M75" s="31">
         <v>73</v>
       </c>
-      <c r="N75" s="35" t="s">
+      <c r="N75" s="33" t="s">
         <v>123</v>
       </c>
       <c r="O75" s="14"/>
@@ -4846,7 +4865,7 @@
       <c r="M76" s="31">
         <v>74</v>
       </c>
-      <c r="N76" s="35" t="s">
+      <c r="N76" s="33" t="s">
         <v>151</v>
       </c>
       <c r="O76" s="14"/>
@@ -4878,7 +4897,7 @@
       <c r="M77" s="31">
         <v>75</v>
       </c>
-      <c r="N77" s="35" t="s">
+      <c r="N77" s="33" t="s">
         <v>235</v>
       </c>
       <c r="O77" s="14"/>
@@ -4910,7 +4929,7 @@
       <c r="M78" s="31">
         <v>76</v>
       </c>
-      <c r="N78" s="35" t="s">
+      <c r="N78" s="33" t="s">
         <v>94</v>
       </c>
       <c r="O78" s="14"/>
@@ -4942,7 +4961,7 @@
       <c r="M79" s="31">
         <v>77</v>
       </c>
-      <c r="N79" s="35" t="s">
+      <c r="N79" s="33" t="s">
         <v>115</v>
       </c>
       <c r="O79" s="14"/>
@@ -4974,7 +4993,7 @@
       <c r="M80" s="31">
         <v>78</v>
       </c>
-      <c r="N80" s="35" t="s">
+      <c r="N80" s="33" t="s">
         <v>236</v>
       </c>
       <c r="O80" s="14"/>
@@ -5005,7 +5024,7 @@
       <c r="M81" s="31">
         <v>79</v>
       </c>
-      <c r="N81" s="35" t="s">
+      <c r="N81" s="33" t="s">
         <v>237</v>
       </c>
       <c r="O81" s="14"/>
@@ -5036,7 +5055,7 @@
       <c r="M82" s="31">
         <v>80</v>
       </c>
-      <c r="N82" s="35" t="s">
+      <c r="N82" s="33" t="s">
         <v>106</v>
       </c>
       <c r="O82" s="14"/>
@@ -5067,7 +5086,7 @@
       <c r="M83" s="31">
         <v>81</v>
       </c>
-      <c r="N83" s="35" t="s">
+      <c r="N83" s="33" t="s">
         <v>124</v>
       </c>
       <c r="O83" s="14"/>
@@ -5098,7 +5117,7 @@
       <c r="M84" s="31">
         <v>82</v>
       </c>
-      <c r="N84" s="35" t="s">
+      <c r="N84" s="33" t="s">
         <v>195</v>
       </c>
       <c r="O84" s="14"/>
@@ -5129,7 +5148,7 @@
       <c r="M85" s="31">
         <v>83</v>
       </c>
-      <c r="N85" s="35" t="s">
+      <c r="N85" s="33" t="s">
         <v>101</v>
       </c>
       <c r="O85" s="14"/>
@@ -5160,7 +5179,7 @@
       <c r="M86" s="31">
         <v>84</v>
       </c>
-      <c r="N86" s="35" t="s">
+      <c r="N86" s="33" t="s">
         <v>217</v>
       </c>
       <c r="O86" s="14"/>
@@ -5191,7 +5210,7 @@
       <c r="M87" s="31">
         <v>85</v>
       </c>
-      <c r="N87" s="35" t="s">
+      <c r="N87" s="33" t="s">
         <v>164</v>
       </c>
       <c r="O87" s="14"/>
@@ -5222,7 +5241,7 @@
       <c r="M88" s="31">
         <v>86</v>
       </c>
-      <c r="N88" s="35" t="s">
+      <c r="N88" s="33" t="s">
         <v>45</v>
       </c>
       <c r="O88" s="14"/>
@@ -5253,7 +5272,7 @@
       <c r="M89" s="31">
         <v>87</v>
       </c>
-      <c r="N89" s="35" t="s">
+      <c r="N89" s="33" t="s">
         <v>163</v>
       </c>
       <c r="O89" s="14"/>
@@ -5284,7 +5303,7 @@
       <c r="M90" s="31">
         <v>88</v>
       </c>
-      <c r="N90" s="35" t="s">
+      <c r="N90" s="33" t="s">
         <v>109</v>
       </c>
       <c r="O90" s="14"/>
@@ -5315,7 +5334,7 @@
       <c r="M91" s="31">
         <v>89</v>
       </c>
-      <c r="N91" s="35" t="s">
+      <c r="N91" s="33" t="s">
         <v>67</v>
       </c>
       <c r="O91" s="14"/>
@@ -5346,7 +5365,7 @@
       <c r="M92" s="31">
         <v>90</v>
       </c>
-      <c r="N92" s="35" t="s">
+      <c r="N92" s="33" t="s">
         <v>28</v>
       </c>
       <c r="O92" s="14"/>
@@ -5375,7 +5394,7 @@
       <c r="M93" s="31">
         <v>91</v>
       </c>
-      <c r="N93" s="35" t="s">
+      <c r="N93" s="33" t="s">
         <v>168</v>
       </c>
       <c r="O93" s="14"/>
@@ -5404,7 +5423,7 @@
       <c r="M94" s="31">
         <v>92</v>
       </c>
-      <c r="N94" s="35" t="s">
+      <c r="N94" s="33" t="s">
         <v>238</v>
       </c>
       <c r="O94" s="14"/>
@@ -5433,7 +5452,7 @@
       <c r="M95" s="31">
         <v>93</v>
       </c>
-      <c r="N95" s="35" t="s">
+      <c r="N95" s="33" t="s">
         <v>156</v>
       </c>
       <c r="O95" s="14"/>
@@ -5462,7 +5481,7 @@
       <c r="M96" s="31">
         <v>94</v>
       </c>
-      <c r="N96" s="35" t="s">
+      <c r="N96" s="33" t="s">
         <v>239</v>
       </c>
       <c r="O96" s="14"/>
@@ -5491,7 +5510,7 @@
       <c r="M97" s="31">
         <v>95</v>
       </c>
-      <c r="N97" s="35" t="s">
+      <c r="N97" s="33" t="s">
         <v>159</v>
       </c>
       <c r="O97" s="14"/>
@@ -5520,7 +5539,7 @@
       <c r="M98" s="31">
         <v>96</v>
       </c>
-      <c r="N98" s="35" t="s">
+      <c r="N98" s="33" t="s">
         <v>187</v>
       </c>
       <c r="O98" s="14"/>
@@ -5549,7 +5568,7 @@
       <c r="M99" s="31">
         <v>97</v>
       </c>
-      <c r="N99" s="35" t="s">
+      <c r="N99" s="33" t="s">
         <v>66</v>
       </c>
       <c r="O99" s="14"/>
@@ -5578,7 +5597,7 @@
       <c r="M100" s="31">
         <v>98</v>
       </c>
-      <c r="N100" s="35" t="s">
+      <c r="N100" s="33" t="s">
         <v>142</v>
       </c>
       <c r="O100" s="14"/>
@@ -5607,7 +5626,7 @@
       <c r="M101" s="31">
         <v>99</v>
       </c>
-      <c r="N101" s="35" t="s">
+      <c r="N101" s="33" t="s">
         <v>82</v>
       </c>
       <c r="O101" s="14"/>
@@ -5636,7 +5655,7 @@
       <c r="M102" s="31">
         <v>100</v>
       </c>
-      <c r="N102" s="35" t="s">
+      <c r="N102" s="33" t="s">
         <v>186</v>
       </c>
       <c r="O102" s="14"/>
@@ -5661,7 +5680,7 @@
       <c r="M103" s="31">
         <v>101</v>
       </c>
-      <c r="N103" s="35" t="s">
+      <c r="N103" s="33" t="s">
         <v>196</v>
       </c>
       <c r="O103" s="14"/>
@@ -5686,7 +5705,7 @@
       <c r="M104" s="31">
         <v>102</v>
       </c>
-      <c r="N104" s="35" t="s">
+      <c r="N104" s="33" t="s">
         <v>50</v>
       </c>
       <c r="O104" s="14"/>
@@ -5711,7 +5730,7 @@
       <c r="M105" s="31">
         <v>103</v>
       </c>
-      <c r="N105" s="35" t="s">
+      <c r="N105" s="33" t="s">
         <v>58</v>
       </c>
       <c r="O105" s="14"/>
@@ -5736,7 +5755,7 @@
       <c r="M106" s="31">
         <v>104</v>
       </c>
-      <c r="N106" s="35" t="s">
+      <c r="N106" s="33" t="s">
         <v>184</v>
       </c>
       <c r="O106" s="14"/>
@@ -5761,7 +5780,7 @@
       <c r="M107" s="31">
         <v>105</v>
       </c>
-      <c r="N107" s="35" t="s">
+      <c r="N107" s="33" t="s">
         <v>202</v>
       </c>
       <c r="O107" s="14"/>
@@ -5786,7 +5805,7 @@
       <c r="M108" s="31">
         <v>106</v>
       </c>
-      <c r="N108" s="35" t="s">
+      <c r="N108" s="33" t="s">
         <v>97</v>
       </c>
       <c r="O108" s="14"/>
@@ -5811,7 +5830,7 @@
       <c r="M109" s="31">
         <v>107</v>
       </c>
-      <c r="N109" s="35" t="s">
+      <c r="N109" s="33" t="s">
         <v>126</v>
       </c>
       <c r="O109" s="14"/>
@@ -5836,7 +5855,7 @@
       <c r="M110" s="31">
         <v>108</v>
       </c>
-      <c r="N110" s="35" t="s">
+      <c r="N110" s="33" t="s">
         <v>192</v>
       </c>
       <c r="O110" s="14"/>
@@ -5861,7 +5880,7 @@
       <c r="M111" s="31">
         <v>109</v>
       </c>
-      <c r="N111" s="35" t="s">
+      <c r="N111" s="33" t="s">
         <v>182</v>
       </c>
       <c r="O111" s="14"/>
@@ -5886,7 +5905,7 @@
       <c r="M112" s="31">
         <v>110</v>
       </c>
-      <c r="N112" s="35" t="s">
+      <c r="N112" s="33" t="s">
         <v>135</v>
       </c>
       <c r="O112" s="14"/>
@@ -5911,7 +5930,7 @@
       <c r="M113" s="31">
         <v>111</v>
       </c>
-      <c r="N113" s="35" t="s">
+      <c r="N113" s="33" t="s">
         <v>215</v>
       </c>
       <c r="O113" s="14"/>
@@ -6180,11 +6199,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
       <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4">
@@ -6484,19 +6503,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
       <c r="K1" s="12" t="s">
         <v>31</v>
       </c>
@@ -7262,8 +7281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7283,634 +7302,634 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="E1" s="32" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="E1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="I1" s="32" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="M1" s="32" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="M1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="33">
-        <v>42464</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
+      <c r="A2" s="37">
+        <v>42566</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36" t="s">
+      <c r="H3" s="33"/>
+      <c r="I3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="36" t="s">
+      <c r="L3" s="33"/>
+      <c r="M3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="N3" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="36" t="s">
+      <c r="O3" s="34" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="34">
         <v>3</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="34">
         <v>89</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="33"/>
+      <c r="E4" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="34">
         <v>7</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="34">
         <v>47</v>
       </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36" t="s">
+      <c r="H4" s="33"/>
+      <c r="I4" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="37">
+      <c r="J4" s="35">
         <v>21</v>
       </c>
-      <c r="K4" s="37">
+      <c r="K4" s="35">
         <v>76</v>
       </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="36" t="s">
+      <c r="L4" s="33"/>
+      <c r="M4" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="37">
+      <c r="N4" s="35">
         <v>9</v>
       </c>
-      <c r="O4" s="37">
+      <c r="O4" s="35">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="34">
         <v>7</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="34">
         <v>53</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="34">
         <v>0</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="34">
         <v>14</v>
       </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36" t="s">
+      <c r="H5" s="33"/>
+      <c r="I5" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="35">
         <v>0</v>
       </c>
-      <c r="K5" s="37">
+      <c r="K5" s="35">
         <v>1</v>
       </c>
-      <c r="L5" s="35"/>
-      <c r="M5" s="36" t="s">
+      <c r="L5" s="33"/>
+      <c r="M5" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="N5" s="37">
+      <c r="N5" s="35">
         <v>0</v>
       </c>
-      <c r="O5" s="37">
+      <c r="O5" s="35">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="34">
         <v>0</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="34">
         <v>3</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="34">
         <v>2</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="34">
         <v>97</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36" t="s">
+      <c r="H6" s="33"/>
+      <c r="I6" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="34">
         <v>4</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="34">
         <v>44</v>
       </c>
-      <c r="L6" s="35"/>
-      <c r="M6" s="36" t="s">
+      <c r="L6" s="33"/>
+      <c r="M6" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="N6" s="37">
+      <c r="N6" s="35">
         <v>0</v>
       </c>
-      <c r="O6" s="37">
+      <c r="O6" s="35">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="34">
         <v>8</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="34">
         <v>55</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36" t="s">
+      <c r="D7" s="33"/>
+      <c r="E7" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="34">
         <v>10</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="34">
         <v>113</v>
       </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36" t="s">
+      <c r="H7" s="33"/>
+      <c r="I7" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="34">
         <v>19</v>
       </c>
-      <c r="K7" s="36">
+      <c r="K7" s="34">
         <v>96</v>
       </c>
-      <c r="L7" s="35"/>
-      <c r="M7" s="36" t="s">
+      <c r="L7" s="33"/>
+      <c r="M7" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="N7" s="37">
+      <c r="N7" s="35">
         <v>0</v>
       </c>
-      <c r="O7" s="37">
+      <c r="O7" s="35">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="34">
         <v>17</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="34">
         <v>78</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="34">
         <v>8</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="34">
         <v>54</v>
       </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36" t="s">
+      <c r="H8" s="33"/>
+      <c r="I8" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="34">
         <v>0</v>
       </c>
-      <c r="K8" s="36">
+      <c r="K8" s="34">
         <v>9</v>
       </c>
-      <c r="L8" s="35"/>
-      <c r="M8" s="36" t="s">
+      <c r="L8" s="33"/>
+      <c r="M8" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="N8" s="36">
+      <c r="N8" s="34">
         <v>0</v>
       </c>
-      <c r="O8" s="36">
+      <c r="O8" s="34">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="34">
         <v>22</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="34">
         <v>151</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36" t="s">
+      <c r="D9" s="33"/>
+      <c r="E9" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="35">
         <v>27</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="35">
         <v>325</v>
       </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="36" t="s">
+      <c r="H9" s="33"/>
+      <c r="I9" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="34">
         <v>1</v>
       </c>
-      <c r="K9" s="36">
+      <c r="K9" s="34">
         <v>63</v>
       </c>
-      <c r="L9" s="35"/>
-      <c r="M9" s="36" t="s">
+      <c r="L9" s="33"/>
+      <c r="M9" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="N9" s="36">
+      <c r="N9" s="34">
         <v>2</v>
       </c>
-      <c r="O9" s="36">
+      <c r="O9" s="34">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="34">
         <v>3</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="34">
         <v>50</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="36" t="s">
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="34">
         <v>0</v>
       </c>
-      <c r="K10" s="36">
+      <c r="K10" s="34">
         <v>8</v>
       </c>
-      <c r="L10" s="35"/>
-      <c r="M10" s="36" t="s">
+      <c r="L10" s="33"/>
+      <c r="M10" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="N10" s="36">
+      <c r="N10" s="34">
         <v>7</v>
       </c>
-      <c r="O10" s="36">
+      <c r="O10" s="34">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="34">
         <v>3</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="34">
         <v>17</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="36" t="s">
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="34">
         <v>17</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="34">
         <v>76</v>
       </c>
-      <c r="L11" s="35"/>
-      <c r="M11" s="36" t="s">
+      <c r="L11" s="33"/>
+      <c r="M11" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="N11" s="37">
+      <c r="N11" s="35">
         <v>18</v>
       </c>
-      <c r="O11" s="37">
+      <c r="O11" s="35">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="34">
         <v>2</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="34">
         <v>7</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="36" t="s">
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="34">
         <v>3</v>
       </c>
-      <c r="K12" s="36">
+      <c r="K12" s="34">
         <v>24</v>
       </c>
-      <c r="L12" s="35"/>
-      <c r="M12" s="36" t="s">
+      <c r="L12" s="33"/>
+      <c r="M12" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="N12" s="37">
+      <c r="N12" s="35">
         <v>11</v>
       </c>
-      <c r="O12" s="37">
+      <c r="O12" s="35">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="34">
         <v>16</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="34">
         <v>108</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36" t="s">
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="36">
+      <c r="J13" s="34">
         <v>33</v>
       </c>
-      <c r="K13" s="36">
+      <c r="K13" s="34">
         <v>88</v>
       </c>
-      <c r="L13" s="35"/>
-      <c r="M13" s="36" t="s">
+      <c r="L13" s="33"/>
+      <c r="M13" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="N13" s="36">
+      <c r="N13" s="34">
         <v>11</v>
       </c>
-      <c r="O13" s="36">
+      <c r="O13" s="34">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="34">
         <v>81</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="34">
         <v>611</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36" t="s">
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="34">
         <v>4</v>
       </c>
-      <c r="K14" s="36">
+      <c r="K14" s="34">
         <v>28</v>
       </c>
-      <c r="L14" s="35"/>
-      <c r="M14" s="36" t="s">
+      <c r="L14" s="33"/>
+      <c r="M14" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="N14" s="37">
+      <c r="N14" s="35">
         <v>18</v>
       </c>
-      <c r="O14" s="37">
+      <c r="O14" s="35">
         <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="36" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="J15" s="37">
+      <c r="J15" s="35">
         <v>4</v>
       </c>
-      <c r="K15" s="37">
+      <c r="K15" s="35">
         <v>18</v>
       </c>
-      <c r="L15" s="35"/>
-      <c r="M15" s="36" t="s">
+      <c r="L15" s="33"/>
+      <c r="M15" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="N15" s="36">
+      <c r="N15" s="34">
         <v>0</v>
       </c>
-      <c r="O15" s="36">
+      <c r="O15" s="34">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="35"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="36" t="s">
+      <c r="A16" s="33"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16" s="34">
         <v>24</v>
       </c>
-      <c r="K16" s="36">
+      <c r="K16" s="34">
         <v>129</v>
       </c>
-      <c r="L16" s="35"/>
-      <c r="M16" s="36" t="s">
+      <c r="L16" s="33"/>
+      <c r="M16" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="N16" s="36">
+      <c r="N16" s="34">
         <v>76</v>
       </c>
-      <c r="O16" s="36">
+      <c r="O16" s="34">
         <v>504</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="36" t="s">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17" s="34">
         <v>3</v>
       </c>
-      <c r="K17" s="36">
+      <c r="K17" s="34">
         <v>26</v>
       </c>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36" t="s">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="J18" s="36">
+      <c r="J18" s="34">
         <v>0</v>
       </c>
-      <c r="K18" s="36">
+      <c r="K18" s="34">
         <v>15</v>
       </c>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36" t="s">
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="34">
         <v>133</v>
       </c>
-      <c r="K19" s="36">
+      <c r="K19" s="34">
         <v>701</v>
       </c>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
     </row>
     <row r="20" spans="1:15" s="14" customFormat="1">
       <c r="B20" s="12"/>
@@ -7924,149 +7943,443 @@
       <c r="O20" s="13"/>
     </row>
     <row r="21" spans="1:15" s="14" customFormat="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
+      <c r="A21" s="37">
+        <v>42567</v>
+      </c>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="15"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="15"/>
+      <c r="A22" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" s="39">
+        <v>0</v>
+      </c>
+      <c r="C22" s="39">
+        <v>2</v>
+      </c>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" s="39">
+        <v>0</v>
+      </c>
+      <c r="G22" s="39">
+        <v>7</v>
+      </c>
+      <c r="H22" s="38"/>
+      <c r="I22" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" s="39">
+        <v>11</v>
+      </c>
+      <c r="K22" s="39">
+        <v>0</v>
+      </c>
+      <c r="L22" s="38"/>
+      <c r="M22" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="N22" s="39">
+        <v>2</v>
+      </c>
+      <c r="O22" s="39">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="15"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
+      <c r="A23" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23" s="39">
+        <v>2</v>
+      </c>
+      <c r="C23" s="39">
+        <v>18</v>
+      </c>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" s="39">
+        <v>1</v>
+      </c>
+      <c r="G23" s="39">
+        <v>20</v>
+      </c>
+      <c r="H23" s="38"/>
+      <c r="I23" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="J23" s="40">
+        <v>0</v>
+      </c>
+      <c r="K23" s="40">
+        <v>2</v>
+      </c>
+      <c r="L23" s="38"/>
+      <c r="M23" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="N23" s="40">
+        <v>67</v>
+      </c>
+      <c r="O23" s="40">
+        <v>199</v>
+      </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="15"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
+      <c r="A24" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" s="39">
+        <v>24</v>
+      </c>
+      <c r="C24" s="39">
+        <v>121</v>
+      </c>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="39">
+        <v>3</v>
+      </c>
+      <c r="G24" s="39">
+        <v>9</v>
+      </c>
+      <c r="H24" s="38"/>
+      <c r="I24" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="J24" s="40">
+        <v>35</v>
+      </c>
+      <c r="K24" s="40">
+        <v>67</v>
+      </c>
+      <c r="L24" s="38"/>
+      <c r="M24" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="N24" s="40">
+        <v>12</v>
+      </c>
+      <c r="O24" s="40">
+        <v>18</v>
+      </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="15"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
+      <c r="A25" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" s="39">
+        <v>8</v>
+      </c>
+      <c r="C25" s="39">
+        <v>86</v>
+      </c>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="39">
+        <v>36</v>
+      </c>
+      <c r="G25" s="39">
+        <v>244</v>
+      </c>
+      <c r="H25" s="38"/>
+      <c r="I25" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="J25" s="39">
+        <v>1</v>
+      </c>
+      <c r="K25" s="39">
+        <v>0</v>
+      </c>
+      <c r="L25" s="38"/>
+      <c r="M25" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="N25" s="40">
+        <v>12</v>
+      </c>
+      <c r="O25" s="40">
+        <v>71</v>
+      </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="15"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
+      <c r="A26" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="39">
+        <v>5</v>
+      </c>
+      <c r="C26" s="39">
+        <v>17</v>
+      </c>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="39">
+        <v>1</v>
+      </c>
+      <c r="G26" s="39">
+        <v>21</v>
+      </c>
+      <c r="H26" s="38"/>
+      <c r="I26" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="J26" s="39">
+        <v>16</v>
+      </c>
+      <c r="K26" s="39">
+        <v>38</v>
+      </c>
+      <c r="L26" s="38"/>
+      <c r="M26" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="N26" s="40">
+        <v>5</v>
+      </c>
+      <c r="O26" s="40">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="15"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="15"/>
+      <c r="A27" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="39">
+        <v>4</v>
+      </c>
+      <c r="C27" s="39">
+        <v>57</v>
+      </c>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="39">
+        <v>41</v>
+      </c>
+      <c r="G27" s="39">
+        <v>301</v>
+      </c>
+      <c r="H27" s="38"/>
+      <c r="I27" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="J27" s="39">
+        <v>10</v>
+      </c>
+      <c r="K27" s="39">
+        <v>30</v>
+      </c>
+      <c r="L27" s="38"/>
+      <c r="M27" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="N27" s="39">
+        <v>0</v>
+      </c>
+      <c r="O27" s="39">
+        <v>20</v>
+      </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="15"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="15"/>
+      <c r="A28" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="39">
+        <v>43</v>
+      </c>
+      <c r="C28" s="39">
+        <v>301</v>
+      </c>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="39">
+        <v>4</v>
+      </c>
+      <c r="K28" s="39">
+        <v>13</v>
+      </c>
+      <c r="L28" s="38"/>
+      <c r="M28" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="N28" s="39">
+        <v>2</v>
+      </c>
+      <c r="O28" s="39">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="15"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="15"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29" s="39">
+        <v>28</v>
+      </c>
+      <c r="K29" s="39">
+        <v>69</v>
+      </c>
+      <c r="L29" s="38"/>
+      <c r="M29" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="N29" s="39">
+        <v>0</v>
+      </c>
+      <c r="O29" s="39">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="15"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" s="39">
+        <v>78</v>
+      </c>
+      <c r="K30" s="39">
+        <v>188</v>
+      </c>
+      <c r="L30" s="38"/>
+      <c r="M30" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="N30" s="40">
+        <v>1</v>
+      </c>
+      <c r="O30" s="40">
+        <v>11</v>
+      </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="15"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="J31" s="39">
+        <v>6</v>
+      </c>
+      <c r="K31" s="39">
+        <v>7</v>
+      </c>
+      <c r="L31" s="38"/>
+      <c r="M31" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="N31" s="40">
+        <v>3</v>
+      </c>
+      <c r="O31" s="40">
+        <v>12</v>
+      </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="15"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="15"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="15"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="J32" s="39">
+        <v>3</v>
+      </c>
+      <c r="K32" s="39">
+        <v>33</v>
+      </c>
+      <c r="L32" s="38"/>
+      <c r="M32" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" s="40">
+        <v>104</v>
+      </c>
+      <c r="O32" s="40">
+        <v>341</v>
+      </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="15"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="15"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="40">
+        <v>192</v>
+      </c>
+      <c r="K33" s="40">
+        <v>447</v>
+      </c>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="15"/>
@@ -8443,7 +8756,8 @@
       <c r="M63" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A21:O21"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:K1"/>
@@ -11367,19 +11681,19 @@
       </c>
       <c r="E2" s="7">
         <f>COUNTIF(帮战总榜!A$1:O$150,$A2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="7">
         <f t="shared" ref="F2" si="0">SUM(B2:E2)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2" s="7">
         <f t="shared" ref="H2" si="1">IF($F2&gt;6,6,$F2)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2" s="4">
         <f>SUM(H2:H160)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K2" s="4">
         <f>SUM(F2:F160)-J2</f>
@@ -11387,7 +11701,7 @@
       </c>
       <c r="L2" s="4">
         <f>K2+J2</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M2" s="4">
         <f>COUNTIF(F:F,"&gt;"&amp;6)</f>
@@ -14228,7 +14542,7 @@
       </c>
       <c r="D2" s="2">
         <f>('若梦-箱子'!$L$2)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2">
         <f>('何梦-箱子'!$L$2)</f>
@@ -14236,7 +14550,7 @@
       </c>
       <c r="F2" s="2">
         <f>SUM(B2:E2)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="4">
         <f>'何梦-箱子'!M2+'若梦-箱子'!M2+'如梦-箱子'!M2+'逐梦-箱子'!M2</f>
@@ -14257,7 +14571,7 @@
       </c>
       <c r="D3" s="16">
         <f>('若梦-箱子'!$J$2)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="16">
         <f>('何梦-箱子'!$J$2)</f>
@@ -14265,18 +14579,18 @@
       </c>
       <c r="F3" s="16">
         <f>SUM(B3:E3)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="掠夺总榜" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="645">
   <si>
     <t>ID</t>
   </si>
@@ -1921,13 +1921,58 @@
   </si>
   <si>
     <t>仙Girl雪飞霜</t>
+  </si>
+  <si>
+    <t>凤栖梧桐叶</t>
+  </si>
+  <si>
+    <t>欧阳丶紫薰</t>
+  </si>
+  <si>
+    <t>半面红妆月如颜</t>
+  </si>
+  <si>
+    <t>飒新</t>
+  </si>
+  <si>
+    <t>我不介意荆棘</t>
+  </si>
+  <si>
+    <t>丿流年灬Cc</t>
+  </si>
+  <si>
+    <t>枫丿吟月</t>
+  </si>
+  <si>
+    <t>南巷末枝</t>
+  </si>
+  <si>
+    <t>蛋蛋大侠丨</t>
+  </si>
+  <si>
+    <t>赵昊昌</t>
+  </si>
+  <si>
+    <t>凉山伯</t>
+  </si>
+  <si>
+    <t>严秋月</t>
+  </si>
+  <si>
+    <t>白兰鸽巡游记</t>
+  </si>
+  <si>
+    <t>大光明里凤凰现</t>
+  </si>
+  <si>
+    <t>友善的大胸奶妈</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1943,13 +1988,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1963,17 +2001,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1985,15 +2018,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2052,15 +2084,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="常规 3" xfId="3"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2630,7 +2667,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3540,8 +3576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P145"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3552,8 +3588,8 @@
     <col min="5" max="5" width="16.5703125" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="21" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3" style="21" bestFit="1" customWidth="1"/>
   </cols>
@@ -3620,9 +3656,24 @@
       <c r="B3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="D3" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>158</v>
+      </c>
       <c r="M3" s="8"/>
       <c r="P3" s="21"/>
     </row>
@@ -3633,9 +3684,24 @@
       <c r="B4" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="J4" s="21"/>
+      <c r="D4" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>51</v>
+      </c>
       <c r="M4" s="8"/>
       <c r="P4" s="21"/>
     </row>
@@ -3646,9 +3712,24 @@
       <c r="B5" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="J5" s="21"/>
+      <c r="D5" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="M5" s="8"/>
       <c r="P5" s="21"/>
     </row>
@@ -3659,9 +3740,24 @@
       <c r="B6" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="D6" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>101</v>
+      </c>
       <c r="M6" s="8"/>
       <c r="P6" s="21"/>
     </row>
@@ -3672,9 +3768,24 @@
       <c r="B7" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="J7" s="21"/>
+      <c r="D7" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="K7" s="32" t="s">
+        <v>178</v>
+      </c>
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:16">
@@ -3684,9 +3795,24 @@
       <c r="B8" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="J8" s="21"/>
+      <c r="D8" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>100</v>
+      </c>
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:16">
@@ -3696,9 +3822,24 @@
       <c r="B9" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="J9" s="21"/>
+      <c r="D9" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>119</v>
+      </c>
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:16">
@@ -3708,9 +3849,24 @@
       <c r="B10" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="J10" s="21"/>
+      <c r="D10" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>80</v>
+      </c>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
     </row>
@@ -3721,9 +3877,24 @@
       <c r="B11" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="J11" s="21"/>
+      <c r="D11" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>231</v>
+      </c>
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:16">
@@ -3733,9 +3904,24 @@
       <c r="B12" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="J12" s="21"/>
+      <c r="D12" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>61</v>
+      </c>
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:16">
@@ -3745,9 +3931,24 @@
       <c r="B13" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="J13" s="21"/>
+      <c r="D13" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>89</v>
+      </c>
       <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:16">
@@ -3757,9 +3958,24 @@
       <c r="B14" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="J14" s="21"/>
+      <c r="D14" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="32" t="s">
+        <v>254</v>
+      </c>
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:16">
@@ -3769,9 +3985,24 @@
       <c r="B15" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="J15" s="21"/>
+      <c r="D15" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="K15" s="32" t="s">
+        <v>58</v>
+      </c>
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:16">
@@ -3781,9 +4012,24 @@
       <c r="B16" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="J16" s="21"/>
+      <c r="D16" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" s="32" t="s">
+        <v>175</v>
+      </c>
       <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13">
@@ -3793,9 +4039,24 @@
       <c r="B17" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="J17" s="21"/>
+      <c r="D17" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="K17" s="32" t="s">
+        <v>123</v>
+      </c>
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13">
@@ -3805,9 +4066,24 @@
       <c r="B18" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="J18" s="21"/>
+      <c r="D18" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="K18" s="32" t="s">
+        <v>39</v>
+      </c>
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13">
@@ -3817,9 +4093,24 @@
       <c r="B19" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="J19" s="21"/>
+      <c r="D19" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="K19" s="32" t="s">
+        <v>237</v>
+      </c>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13">
@@ -3829,9 +4120,24 @@
       <c r="B20" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="D20" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="32" t="s">
+        <v>49</v>
+      </c>
       <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13">
@@ -3841,9 +4147,24 @@
       <c r="B21" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="D21" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="K21" s="32" t="s">
+        <v>212</v>
+      </c>
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:13">
@@ -3853,9 +4174,24 @@
       <c r="B22" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="J22" s="21"/>
+      <c r="D22" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="K22" s="32" t="s">
+        <v>249</v>
+      </c>
       <c r="M22" s="8"/>
     </row>
     <row r="23" spans="1:13">
@@ -3865,9 +4201,24 @@
       <c r="B23" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="D23" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K23" s="32" t="s">
+        <v>187</v>
+      </c>
       <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13">
@@ -3877,9 +4228,24 @@
       <c r="B24" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="J24" s="21"/>
+      <c r="D24" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="K24" s="32" t="s">
+        <v>155</v>
+      </c>
       <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:13">
@@ -3889,9 +4255,24 @@
       <c r="B25" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="J25" s="21"/>
+      <c r="D25" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="K25" s="32" t="s">
+        <v>53</v>
+      </c>
       <c r="M25" s="8"/>
     </row>
     <row r="26" spans="1:13">
@@ -3901,9 +4282,24 @@
       <c r="B26" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="J26" s="21"/>
+      <c r="D26" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="K26" s="32" t="s">
+        <v>67</v>
+      </c>
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13">
@@ -3913,9 +4309,24 @@
       <c r="B27" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="D27" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="32" t="s">
+        <v>57</v>
+      </c>
       <c r="M27" s="8"/>
     </row>
     <row r="28" spans="1:13">
@@ -3925,9 +4336,24 @@
       <c r="B28" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="D28" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="K28" s="32" t="s">
+        <v>105</v>
+      </c>
       <c r="M28" s="8"/>
     </row>
     <row r="29" spans="1:13">
@@ -3937,9 +4363,24 @@
       <c r="B29" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="J29" s="21"/>
+      <c r="D29" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="J29" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="K29" s="32" t="s">
+        <v>152</v>
+      </c>
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13">
@@ -3949,9 +4390,24 @@
       <c r="B30" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="D30" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>616</v>
+      </c>
+      <c r="H30" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="32" t="s">
+        <v>19</v>
+      </c>
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="1:13">
@@ -3961,9 +4417,24 @@
       <c r="B31" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="J31" s="21"/>
+      <c r="D31" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="H31" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="J31" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="K31" s="32" t="s">
+        <v>126</v>
+      </c>
       <c r="M31" s="8"/>
     </row>
     <row r="32" spans="1:13">
@@ -3973,9 +4444,24 @@
       <c r="B32" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="D32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="J32" s="21"/>
+      <c r="D32" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="J32" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="K32" s="32" t="s">
+        <v>95</v>
+      </c>
       <c r="M32" s="8"/>
     </row>
     <row r="33" spans="1:13">
@@ -3985,9 +4471,24 @@
       <c r="B33" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="J33" s="21"/>
+      <c r="D33" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="H33" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="J33" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="K33" s="32" t="s">
+        <v>214</v>
+      </c>
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="1:13">
@@ -3997,9 +4498,24 @@
       <c r="B34" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="J34" s="21"/>
+      <c r="D34" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="H34" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="J34" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="K34" s="32" t="s">
+        <v>213</v>
+      </c>
       <c r="M34" s="8"/>
     </row>
     <row r="35" spans="1:13">
@@ -4009,9 +4525,24 @@
       <c r="B35" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="J35" s="21"/>
+      <c r="D35" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="H35" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="J35" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="K35" s="32" t="s">
+        <v>83</v>
+      </c>
       <c r="M35" s="8"/>
     </row>
     <row r="36" spans="1:13">
@@ -4021,9 +4552,24 @@
       <c r="B36" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="J36" s="21"/>
+      <c r="D36" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>642</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="J36" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="K36" s="32" t="s">
+        <v>115</v>
+      </c>
       <c r="M36" s="8"/>
     </row>
     <row r="37" spans="1:13">
@@ -4033,9 +4579,24 @@
       <c r="B37" s="24" t="s">
         <v>629</v>
       </c>
-      <c r="D37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="J37" s="21"/>
+      <c r="D37" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>631</v>
+      </c>
+      <c r="J37" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="K37" s="32" t="s">
+        <v>131</v>
+      </c>
       <c r="M37" s="8"/>
     </row>
     <row r="38" spans="1:13">
@@ -4045,9 +4606,24 @@
       <c r="B38" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="D38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="J38" s="21"/>
+      <c r="D38" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="J38" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="K38" s="32" t="s">
+        <v>148</v>
+      </c>
       <c r="M38" s="8"/>
     </row>
     <row r="39" spans="1:13">
@@ -4057,9 +4633,24 @@
       <c r="B39" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="D39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="J39" s="21"/>
+      <c r="D39" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="H39" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="J39" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="K39" s="32" t="s">
+        <v>48</v>
+      </c>
       <c r="M39" s="8"/>
     </row>
     <row r="40" spans="1:13">
@@ -4069,9 +4660,24 @@
       <c r="B40" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="J40" s="21"/>
+      <c r="D40" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="G40" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="H40" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="J40" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="K40" s="32" t="s">
+        <v>209</v>
+      </c>
       <c r="M40" s="8"/>
     </row>
     <row r="41" spans="1:13">
@@ -4081,9 +4687,24 @@
       <c r="B41" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="J41" s="21"/>
+      <c r="D41" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="G41" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="H41" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="J41" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K41" s="32" t="s">
+        <v>106</v>
+      </c>
       <c r="M41" s="8"/>
     </row>
     <row r="42" spans="1:13">
@@ -4093,9 +4714,24 @@
       <c r="B42" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="D42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="J42" s="21"/>
+      <c r="D42" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="G42" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="H42" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J42" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="K42" s="32" t="s">
+        <v>127</v>
+      </c>
       <c r="M42" s="8"/>
     </row>
     <row r="43" spans="1:13">
@@ -4105,9 +4741,24 @@
       <c r="B43" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="D43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="J43" s="21"/>
+      <c r="D43" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="H43" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="J43" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="K43" s="32" t="s">
+        <v>92</v>
+      </c>
       <c r="M43" s="8"/>
     </row>
     <row r="44" spans="1:13">
@@ -4117,9 +4768,24 @@
       <c r="B44" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="J44" s="21"/>
+      <c r="D44" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="G44" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="H44" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="J44" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="K44" s="32" t="s">
+        <v>97</v>
+      </c>
       <c r="M44" s="8"/>
     </row>
     <row r="45" spans="1:13">
@@ -4129,9 +4795,24 @@
       <c r="B45" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="D45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="J45" s="21"/>
+      <c r="D45" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="G45" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="H45" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="J45" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="K45" s="32" t="s">
+        <v>75</v>
+      </c>
       <c r="M45" s="8"/>
     </row>
     <row r="46" spans="1:13">
@@ -4141,9 +4822,24 @@
       <c r="B46" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="J46" s="21"/>
+      <c r="D46" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="G46" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="H46" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="J46" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="K46" s="32" t="s">
+        <v>85</v>
+      </c>
       <c r="M46" s="8"/>
     </row>
     <row r="47" spans="1:13">
@@ -4153,9 +4849,24 @@
       <c r="B47" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="J47" s="21"/>
+      <c r="D47" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G47" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="H47" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="J47" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="K47" s="32" t="s">
+        <v>98</v>
+      </c>
       <c r="M47" s="8"/>
     </row>
     <row r="48" spans="1:13">
@@ -4165,9 +4876,24 @@
       <c r="B48" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="J48" s="21"/>
+      <c r="D48" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G48" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="H48" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="J48" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="K48" s="32" t="s">
+        <v>114</v>
+      </c>
       <c r="M48" s="8"/>
     </row>
     <row r="49" spans="1:13">
@@ -4177,9 +4903,24 @@
       <c r="B49" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="J49" s="21"/>
+      <c r="D49" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>630</v>
+      </c>
+      <c r="G49" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="H49" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="J49" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="K49" s="32" t="s">
+        <v>139</v>
+      </c>
       <c r="M49" s="8"/>
     </row>
     <row r="50" spans="1:13">
@@ -4189,9 +4930,24 @@
       <c r="B50" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="J50" s="21"/>
+      <c r="D50" s="24" t="s">
+        <v>625</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="G50" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="H50" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="J50" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="K50" s="32" t="s">
+        <v>112</v>
+      </c>
       <c r="M50" s="8"/>
     </row>
     <row r="51" spans="1:13">
@@ -4201,9 +4957,24 @@
       <c r="B51" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="D51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="J51" s="21"/>
+      <c r="D51" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="G51" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="H51" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="J51" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="K51" s="32" t="s">
+        <v>251</v>
+      </c>
       <c r="M51" s="8"/>
     </row>
     <row r="52" spans="1:13">
@@ -4213,9 +4984,24 @@
       <c r="B52" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="D52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="J52" s="21"/>
+      <c r="D52" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>625</v>
+      </c>
+      <c r="G52" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="H52" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="J52" s="24" t="s">
+        <v>631</v>
+      </c>
+      <c r="K52" s="32" t="s">
+        <v>233</v>
+      </c>
       <c r="M52" s="8"/>
     </row>
     <row r="53" spans="1:13">
@@ -4225,9 +5011,24 @@
       <c r="B53" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="D53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="J53" s="21"/>
+      <c r="D53" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E53" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="G53" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="H53" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="J53" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="K53" s="32" t="s">
+        <v>221</v>
+      </c>
       <c r="M53" s="8"/>
     </row>
     <row r="54" spans="1:13">
@@ -4237,9 +5038,24 @@
       <c r="B54" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="D54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="J54" s="21"/>
+      <c r="D54" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="E54" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="G54" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="H54" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="J54" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="K54" s="32" t="s">
+        <v>156</v>
+      </c>
       <c r="M54" s="8"/>
     </row>
     <row r="55" spans="1:13">
@@ -4249,9 +5065,24 @@
       <c r="B55" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="J55" s="21"/>
+      <c r="D55" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E55" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G55" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="H55" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="J55" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="K55" s="32" t="s">
+        <v>88</v>
+      </c>
       <c r="M55" s="8"/>
     </row>
     <row r="56" spans="1:13">
@@ -4261,9 +5092,24 @@
       <c r="B56" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="D56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="J56" s="21"/>
+      <c r="D56" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E56" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="G56" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="H56" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="J56" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="K56" s="32" t="s">
+        <v>125</v>
+      </c>
       <c r="M56" s="8"/>
     </row>
     <row r="57" spans="1:13">
@@ -4273,9 +5119,24 @@
       <c r="B57" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="D57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="J57" s="21"/>
+      <c r="D57" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="E57" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="G57" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="H57" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="J57" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="K57" s="32" t="s">
+        <v>78</v>
+      </c>
       <c r="M57" s="8"/>
     </row>
     <row r="58" spans="1:13">
@@ -4285,9 +5146,24 @@
       <c r="B58" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="J58" s="21"/>
+      <c r="D58" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="G58" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H58" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="J58" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="K58" s="32" t="s">
+        <v>40</v>
+      </c>
       <c r="M58" s="8"/>
     </row>
     <row r="59" spans="1:13">
@@ -4297,9 +5173,24 @@
       <c r="B59" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="D59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="J59" s="21"/>
+      <c r="D59" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E59" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="G59" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="H59" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="J59" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="K59" s="32" t="s">
+        <v>130</v>
+      </c>
       <c r="M59" s="8"/>
     </row>
     <row r="60" spans="1:13">
@@ -4309,9 +5200,24 @@
       <c r="B60" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="D60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="J60" s="21"/>
+      <c r="D60" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E60" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="G60" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="H60" s="32" t="s">
+        <v>485</v>
+      </c>
+      <c r="J60" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="K60" s="32" t="s">
+        <v>70</v>
+      </c>
       <c r="M60" s="8"/>
     </row>
     <row r="61" spans="1:13">
@@ -4321,9 +5227,24 @@
       <c r="B61" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="J61" s="21"/>
+      <c r="D61" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G61" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="H61" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="J61" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="K61" s="32" t="s">
+        <v>116</v>
+      </c>
       <c r="M61" s="8"/>
     </row>
     <row r="62" spans="1:13">
@@ -4333,9 +5254,24 @@
       <c r="B62" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="D62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="J62" s="21"/>
+      <c r="D62" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="E62" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="G62" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="H62" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="J62" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="K62" s="32" t="s">
+        <v>63</v>
+      </c>
       <c r="M62" s="8"/>
     </row>
     <row r="63" spans="1:13">
@@ -4345,9 +5281,24 @@
       <c r="B63" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="D63" s="21"/>
-      <c r="G63" s="21"/>
-      <c r="J63" s="21"/>
+      <c r="D63" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="E63" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="G63" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="H63" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="J63" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="K63" s="32" t="s">
+        <v>113</v>
+      </c>
       <c r="M63" s="8"/>
     </row>
     <row r="64" spans="1:13">
@@ -4357,9 +5308,24 @@
       <c r="B64" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D64" s="21"/>
-      <c r="G64" s="21"/>
-      <c r="J64" s="21"/>
+      <c r="D64" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E64" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G64" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="H64" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="J64" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="K64" s="32" t="s">
+        <v>93</v>
+      </c>
       <c r="M64" s="8"/>
     </row>
     <row r="65" spans="1:13">
@@ -4369,9 +5335,24 @@
       <c r="B65" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="D65" s="21"/>
-      <c r="G65" s="21"/>
-      <c r="J65" s="21"/>
+      <c r="D65" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="G65" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="H65" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="J65" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="K65" s="32" t="s">
+        <v>314</v>
+      </c>
       <c r="M65" s="8"/>
     </row>
     <row r="66" spans="1:13">
@@ -4381,9 +5362,24 @@
       <c r="B66" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D66" s="21"/>
-      <c r="G66" s="21"/>
-      <c r="J66" s="21"/>
+      <c r="D66" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="E66" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="G66" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="H66" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="J66" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K66" s="32" t="s">
+        <v>84</v>
+      </c>
       <c r="M66" s="8"/>
     </row>
     <row r="67" spans="1:13">
@@ -4393,9 +5389,24 @@
       <c r="B67" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="D67" s="21"/>
-      <c r="G67" s="21"/>
-      <c r="J67" s="21"/>
+      <c r="D67" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E67" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="G67" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="H67" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J67" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="K67" s="32" t="s">
+        <v>117</v>
+      </c>
       <c r="M67" s="8"/>
     </row>
     <row r="68" spans="1:13">
@@ -4405,9 +5416,24 @@
       <c r="B68" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="J68" s="21"/>
+      <c r="D68" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E68" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G68" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H68" s="32" t="s">
+        <v>630</v>
+      </c>
+      <c r="J68" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="K68" s="32" t="s">
+        <v>108</v>
+      </c>
       <c r="M68" s="8"/>
     </row>
     <row r="69" spans="1:13">
@@ -4417,9 +5443,24 @@
       <c r="B69" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D69" s="21"/>
-      <c r="G69" s="21"/>
-      <c r="J69" s="21"/>
+      <c r="D69" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E69" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="G69" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H69" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="J69" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="K69" s="32" t="s">
+        <v>73</v>
+      </c>
       <c r="M69" s="8"/>
     </row>
     <row r="70" spans="1:13">
@@ -4429,9 +5470,24 @@
       <c r="B70" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="D70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="J70" s="21"/>
+      <c r="D70" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E70" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G70" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="H70" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="J70" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="K70" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="M70" s="8"/>
     </row>
     <row r="71" spans="1:13">
@@ -4441,9 +5497,24 @@
       <c r="B71" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="D71" s="21"/>
-      <c r="G71" s="21"/>
-      <c r="J71" s="21"/>
+      <c r="D71" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E71" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="G71" s="32" t="s">
+        <v>643</v>
+      </c>
+      <c r="H71" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="J71" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="K71" s="32" t="s">
+        <v>46</v>
+      </c>
       <c r="M71" s="8"/>
     </row>
     <row r="72" spans="1:13">
@@ -4453,9 +5524,24 @@
       <c r="B72" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="D72" s="21"/>
-      <c r="G72" s="21"/>
-      <c r="J72" s="21"/>
+      <c r="D72" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E72" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="G72" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="H72" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="J72" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K72" s="32" t="s">
+        <v>47</v>
+      </c>
       <c r="M72" s="8"/>
     </row>
     <row r="73" spans="1:13">
@@ -4465,9 +5551,24 @@
       <c r="B73" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="D73" s="21"/>
-      <c r="G73" s="21"/>
-      <c r="J73" s="21"/>
+      <c r="D73" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E73" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="G73" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="H73" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="J73" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="K73" s="32" t="s">
+        <v>177</v>
+      </c>
       <c r="M73" s="8"/>
     </row>
     <row r="74" spans="1:13">
@@ -4477,9 +5578,24 @@
       <c r="B74" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="D74" s="21"/>
-      <c r="G74" s="21"/>
-      <c r="J74" s="21"/>
+      <c r="D74" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="E74" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G74" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="H74" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="J74" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="K74" s="32" t="s">
+        <v>262</v>
+      </c>
       <c r="M74" s="8"/>
     </row>
     <row r="75" spans="1:13">
@@ -4489,9 +5605,24 @@
       <c r="B75" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="D75" s="21"/>
-      <c r="G75" s="21"/>
-      <c r="J75" s="21"/>
+      <c r="D75" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E75" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="G75" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H75" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="J75" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K75" s="32" t="s">
+        <v>165</v>
+      </c>
       <c r="M75" s="8"/>
     </row>
     <row r="76" spans="1:13">
@@ -4501,9 +5632,24 @@
       <c r="B76" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="D76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="J76" s="21"/>
+      <c r="D76" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="E76" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G76" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="H76" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="J76" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="K76" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="M76" s="8"/>
     </row>
     <row r="77" spans="1:13">
@@ -4513,9 +5659,24 @@
       <c r="B77" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="D77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="J77" s="21"/>
+      <c r="D77" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E77" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="G77" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="H77" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="J77" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="K77" s="32" t="s">
+        <v>145</v>
+      </c>
       <c r="M77" s="8"/>
     </row>
     <row r="78" spans="1:13">
@@ -4525,9 +5686,24 @@
       <c r="B78" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="D78" s="21"/>
-      <c r="G78" s="21"/>
-      <c r="J78" s="21"/>
+      <c r="D78" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E78" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="G78" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="H78" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="J78" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="K78" s="32" t="s">
+        <v>87</v>
+      </c>
       <c r="M78" s="8"/>
     </row>
     <row r="79" spans="1:13">
@@ -4537,9 +5713,24 @@
       <c r="B79" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="D79" s="21"/>
-      <c r="G79" s="21"/>
-      <c r="J79" s="21"/>
+      <c r="D79" s="24" t="s">
+        <v>491</v>
+      </c>
+      <c r="E79" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G79" s="32" t="s">
+        <v>485</v>
+      </c>
+      <c r="H79" s="32" t="s">
+        <v>629</v>
+      </c>
+      <c r="J79" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="K79" s="32" t="s">
+        <v>185</v>
+      </c>
       <c r="M79" s="8"/>
     </row>
     <row r="80" spans="1:13">
@@ -4549,9 +5740,24 @@
       <c r="B80" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D80" s="21"/>
-      <c r="G80" s="21"/>
-      <c r="J80" s="21"/>
+      <c r="D80" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="E80" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="G80" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="H80" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="J80" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="K80" s="32" t="s">
+        <v>122</v>
+      </c>
       <c r="M80" s="8"/>
     </row>
     <row r="81" spans="1:13">
@@ -4561,9 +5767,24 @@
       <c r="B81" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="D81" s="21"/>
-      <c r="G81" s="21"/>
-      <c r="J81" s="21"/>
+      <c r="D81" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E81" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G81" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="H81" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="J81" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="K81" s="32" t="s">
+        <v>86</v>
+      </c>
       <c r="M81" s="8"/>
     </row>
     <row r="82" spans="1:13">
@@ -4573,9 +5794,24 @@
       <c r="B82" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D82" s="21"/>
-      <c r="G82" s="21"/>
-      <c r="J82" s="21"/>
+      <c r="D82" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="E82" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G82" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H82" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="J82" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="K82" s="32" t="s">
+        <v>99</v>
+      </c>
       <c r="M82" s="8"/>
     </row>
     <row r="83" spans="1:13">
@@ -4585,9 +5821,24 @@
       <c r="B83" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="D83" s="21"/>
-      <c r="G83" s="21"/>
-      <c r="J83" s="21"/>
+      <c r="D83" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E83" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="G83" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="H83" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="J83" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K83" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="M83" s="8"/>
     </row>
     <row r="84" spans="1:13">
@@ -4597,9 +5848,24 @@
       <c r="B84" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="D84" s="21"/>
-      <c r="G84" s="21"/>
-      <c r="J84" s="21"/>
+      <c r="D84" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="E84" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="G84" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="H84" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="J84" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="K84" s="32" t="s">
+        <v>170</v>
+      </c>
       <c r="M84" s="8"/>
     </row>
     <row r="85" spans="1:13">
@@ -4609,9 +5875,24 @@
       <c r="B85" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="D85" s="21"/>
-      <c r="G85" s="21"/>
-      <c r="J85" s="21"/>
+      <c r="D85" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="E85" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G85" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="H85" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="J85" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="K85" s="32" t="s">
+        <v>147</v>
+      </c>
       <c r="M85" s="8"/>
     </row>
     <row r="86" spans="1:13">
@@ -4621,9 +5902,24 @@
       <c r="B86" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="D86" s="21"/>
-      <c r="G86" s="21"/>
-      <c r="J86" s="21"/>
+      <c r="D86" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="E86" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="G86" s="32" t="s">
+        <v>644</v>
+      </c>
+      <c r="H86" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="J86" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="K86" s="32" t="s">
+        <v>96</v>
+      </c>
       <c r="M86" s="8"/>
     </row>
     <row r="87" spans="1:13">
@@ -4633,9 +5929,24 @@
       <c r="B87" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="D87" s="21"/>
-      <c r="G87" s="21"/>
-      <c r="J87" s="21"/>
+      <c r="D87" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E87" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="G87" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="H87" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="J87" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="K87" s="32" t="s">
+        <v>91</v>
+      </c>
       <c r="M87" s="8"/>
     </row>
     <row r="88" spans="1:13">
@@ -4645,9 +5956,24 @@
       <c r="B88" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="D88" s="21"/>
-      <c r="G88" s="21"/>
-      <c r="J88" s="21"/>
+      <c r="D88" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E88" s="32" t="s">
+        <v>629</v>
+      </c>
+      <c r="G88" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H88" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="J88" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="K88" s="32" t="s">
+        <v>183</v>
+      </c>
       <c r="M88" s="8"/>
     </row>
     <row r="89" spans="1:13">
@@ -4657,9 +5983,24 @@
       <c r="B89" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="D89" s="21"/>
-      <c r="G89" s="21"/>
-      <c r="J89" s="21"/>
+      <c r="D89" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E89" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="G89" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="H89" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J89" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K89" s="32" t="s">
+        <v>38</v>
+      </c>
       <c r="M89" s="8"/>
     </row>
     <row r="90" spans="1:13">
@@ -4669,9 +6010,24 @@
       <c r="B90" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="D90" s="21"/>
-      <c r="G90" s="21"/>
-      <c r="J90" s="21"/>
+      <c r="D90" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E90" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="G90" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="H90" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="J90" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="K90" s="32" t="s">
+        <v>630</v>
+      </c>
       <c r="M90" s="8"/>
     </row>
     <row r="91" spans="1:13">
@@ -4681,9 +6037,24 @@
       <c r="B91" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D91" s="21"/>
-      <c r="G91" s="21"/>
-      <c r="J91" s="21"/>
+      <c r="D91" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="E91" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H91" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="J91" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K91" s="32" t="s">
+        <v>181</v>
+      </c>
       <c r="M91" s="8"/>
     </row>
     <row r="92" spans="1:13">
@@ -4693,9 +6064,24 @@
       <c r="B92" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="D92" s="21"/>
-      <c r="G92" s="21"/>
-      <c r="J92" s="21"/>
+      <c r="D92" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="E92" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G92" s="32" t="s">
+        <v>630</v>
+      </c>
+      <c r="H92" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="J92" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="K92" s="32" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="24" t="s">
@@ -4704,9 +6090,22 @@
       <c r="B93" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="D93" s="21"/>
-      <c r="G93" s="21"/>
-      <c r="J93" s="21"/>
+      <c r="D93" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E93" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="G93" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="H93" s="32"/>
+      <c r="J93" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K93" s="32" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="24" t="s">
@@ -4715,9 +6114,21 @@
       <c r="B94" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="D94" s="21"/>
-      <c r="G94" s="21"/>
-      <c r="J94" s="21"/>
+      <c r="D94" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="E94" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G94" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="J94" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="K94" s="32" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="24" t="s">
@@ -4726,9 +6137,21 @@
       <c r="B95" s="24" t="s">
         <v>535</v>
       </c>
-      <c r="D95" s="21"/>
-      <c r="G95" s="21"/>
-      <c r="J95" s="21"/>
+      <c r="D95" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="E95" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="G95" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="J95" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="K95" s="32" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="24" t="s">
@@ -4737,185 +6160,387 @@
       <c r="B96" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D96" s="21"/>
-      <c r="G96" s="21"/>
-      <c r="J96" s="21"/>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="D96" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="G96" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="J96" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="K96" s="32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B97" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D97" s="21"/>
-      <c r="G97" s="21"/>
-      <c r="J97" s="21"/>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="D97" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E97" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="G97" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="J97" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="K97" s="32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="24" t="s">
         <v>104</v>
       </c>
       <c r="B98" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="D98" s="21"/>
-      <c r="G98" s="21"/>
-      <c r="J98" s="21"/>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="D98" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E98" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="G98" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="J98" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="K98" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="24" t="s">
         <v>237</v>
       </c>
       <c r="B99" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="D99" s="21"/>
-      <c r="G99" s="21"/>
-      <c r="J99" s="21"/>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="D99" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E99" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="G99" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="J99" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="K99" s="32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="24" t="s">
         <v>60</v>
       </c>
       <c r="B100" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D100" s="21"/>
-      <c r="G100" s="21"/>
-      <c r="J100" s="21"/>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="D100" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E100" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="G100" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="J100" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="K100" s="32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="24" t="s">
         <v>97</v>
       </c>
       <c r="B101" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D101" s="21"/>
-      <c r="G101" s="21"/>
-      <c r="J101" s="21"/>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="D101" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="E101" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="G101" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="J101" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="K101" s="32" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="24" t="s">
         <v>50</v>
       </c>
       <c r="B102" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D102" s="21"/>
-      <c r="G102" s="21"/>
-      <c r="J102" s="21"/>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="D102" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="E102" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="G102" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="J102" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="K102" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="24" t="s">
         <v>190</v>
       </c>
       <c r="B103" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="D103" s="21"/>
-      <c r="G103" s="21"/>
-      <c r="J103" s="21"/>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="D103" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E103" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="G103" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="J103" s="24" t="s">
+        <v>535</v>
+      </c>
+      <c r="K103" s="32" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="24" t="s">
         <v>70</v>
       </c>
       <c r="B104" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D104" s="21"/>
-      <c r="G104" s="21"/>
-      <c r="J104" s="21"/>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="D104" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E104" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="G104" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="J104" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="K104" s="32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="24" t="s">
         <v>101</v>
       </c>
       <c r="B105" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D105" s="21"/>
-      <c r="G105" s="21"/>
-      <c r="J105" s="21"/>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="D105" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="E105" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="G105" s="32" t="s">
+        <v>629</v>
+      </c>
+      <c r="J105" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="K105" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="24" t="s">
         <v>94</v>
       </c>
       <c r="B106" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D106" s="21"/>
-      <c r="G106" s="21"/>
-      <c r="J106" s="21"/>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="D106" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="E106" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="G106" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="J106" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="K106" s="32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="24" t="s">
         <v>161</v>
       </c>
       <c r="B107" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="D107" s="21"/>
-      <c r="G107" s="21"/>
-      <c r="J107" s="21"/>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="D107" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="E107" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="G107" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="J107" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="K107" s="32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="24" t="s">
         <v>111</v>
       </c>
       <c r="B108" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="D108" s="21"/>
-      <c r="G108" s="21"/>
-      <c r="J108" s="21"/>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="D108" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E108" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G108" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="J108" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="K108" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="24" t="s">
         <v>223</v>
       </c>
       <c r="B109" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="D109" s="21"/>
-      <c r="G109" s="21"/>
-      <c r="J109" s="21"/>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="D109" s="24" t="s">
+        <v>630</v>
+      </c>
+      <c r="E109" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="G109" s="32" t="s">
+        <v>641</v>
+      </c>
+      <c r="J109" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="K109" s="32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="24" t="s">
         <v>228</v>
       </c>
       <c r="B110" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="D110" s="21"/>
-      <c r="G110" s="21"/>
-      <c r="J110" s="21"/>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="D110" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E110" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="G110" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="J110" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="K110" s="32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="24" t="s">
         <v>206</v>
       </c>
       <c r="B111" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="D111" s="21"/>
-      <c r="G111" s="21"/>
-      <c r="J111" s="21"/>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="D111" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="E111" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="G111" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="J111" s="24" t="s">
+        <v>635</v>
+      </c>
+      <c r="K111" s="32" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="24" t="s">
         <v>200</v>
       </c>
       <c r="B112" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="D112" s="21"/>
-      <c r="G112" s="21"/>
-      <c r="J112" s="21"/>
+      <c r="D112" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E112" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="G112" s="32" t="s">
+        <v>625</v>
+      </c>
+      <c r="J112" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K112" s="32"/>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="24" t="s">
@@ -4924,9 +6549,18 @@
       <c r="B113" s="24" t="s">
         <v>396</v>
       </c>
-      <c r="D113" s="21"/>
-      <c r="G113" s="21"/>
-      <c r="J113" s="21"/>
+      <c r="D113" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E113" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="G113" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="J113" s="24" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="24" t="s">
@@ -4935,9 +6569,18 @@
       <c r="B114" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="D114" s="21"/>
-      <c r="G114" s="21"/>
-      <c r="J114" s="21"/>
+      <c r="D114" s="24" t="s">
+        <v>629</v>
+      </c>
+      <c r="E114" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="G114" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="J114" s="24" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="24" t="s">
@@ -4946,9 +6589,18 @@
       <c r="B115" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="D115" s="21"/>
-      <c r="G115" s="21"/>
-      <c r="J115" s="21"/>
+      <c r="D115" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E115" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G115" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="J115" s="24" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="24" t="s">
@@ -4957,9 +6609,15 @@
       <c r="B116" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="D116" s="21"/>
-      <c r="G116" s="21"/>
-      <c r="J116" s="21"/>
+      <c r="D116" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="G116" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="J116" s="24" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="24" t="s">
@@ -4968,9 +6626,15 @@
       <c r="B117" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="D117" s="21"/>
-      <c r="G117" s="21"/>
-      <c r="J117" s="21"/>
+      <c r="D117" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="G117" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="J117" s="24" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="24" t="s">
@@ -4979,9 +6643,15 @@
       <c r="B118" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="D118" s="21"/>
-      <c r="G118" s="21"/>
-      <c r="J118" s="21"/>
+      <c r="D118" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="G118" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="J118" s="24" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="24" t="s">
@@ -4990,9 +6660,15 @@
       <c r="B119" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="D119" s="21"/>
-      <c r="G119" s="21"/>
-      <c r="J119" s="21"/>
+      <c r="D119" s="24" t="s">
+        <v>615</v>
+      </c>
+      <c r="G119" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="J119" s="24" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="24" t="s">
@@ -5001,9 +6677,15 @@
       <c r="B120" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="D120" s="21"/>
-      <c r="G120" s="21"/>
-      <c r="J120" s="21"/>
+      <c r="D120" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G120" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="J120" s="24" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="24" t="s">
@@ -5012,9 +6694,15 @@
       <c r="B121" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D121" s="21"/>
-      <c r="G121" s="21"/>
-      <c r="J121" s="21"/>
+      <c r="D121" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G121" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="J121" s="24" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="24" t="s">
@@ -5023,9 +6711,15 @@
       <c r="B122" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="D122" s="21"/>
-      <c r="G122" s="21"/>
-      <c r="J122" s="21"/>
+      <c r="D122" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="G122" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="J122" s="24" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="24" t="s">
@@ -5034,7 +6728,9 @@
       <c r="B123" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="D123" s="21"/>
+      <c r="D123" s="24" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="24" t="s">
@@ -5043,7 +6739,9 @@
       <c r="B124" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="D124" s="21"/>
+      <c r="D124" s="24" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="24" t="s">
@@ -5052,7 +6750,9 @@
       <c r="B125" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D125" s="21"/>
+      <c r="D125" s="24" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="24" t="s">
@@ -5061,7 +6761,9 @@
       <c r="B126" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D126" s="21"/>
+      <c r="D126" s="24" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="24" t="s">
@@ -5070,7 +6772,9 @@
       <c r="B127" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D127" s="21"/>
+      <c r="D127" s="24" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="24" t="s">
@@ -5079,7 +6783,9 @@
       <c r="B128" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D128" s="21"/>
+      <c r="D128" s="24" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="24" t="s">
@@ -5088,7 +6794,9 @@
       <c r="B129" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="D129" s="21"/>
+      <c r="D129" s="24" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="24" t="s">
@@ -5097,7 +6805,9 @@
       <c r="B130" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D130" s="21"/>
+      <c r="D130" s="24" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="24" t="s">
@@ -5106,7 +6816,9 @@
       <c r="B131" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="D131" s="21"/>
+      <c r="D131" s="24" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="24" t="s">
@@ -5115,7 +6827,9 @@
       <c r="B132" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="D132" s="21"/>
+      <c r="D132" s="24" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="24" t="s">
@@ -5124,7 +6838,9 @@
       <c r="B133" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D133" s="21"/>
+      <c r="D133" s="24" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="24" t="s">
@@ -5133,7 +6849,9 @@
       <c r="B134" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="D134" s="21"/>
+      <c r="D134" s="24" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="24" t="s">
@@ -5142,7 +6860,9 @@
       <c r="B135" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="D135" s="21"/>
+      <c r="D135" s="24" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="24" t="s">
@@ -5151,7 +6871,9 @@
       <c r="B136" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D136" s="21"/>
+      <c r="D136" s="24" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="24"/>
@@ -5183,8 +6905,8 @@
       <c r="D145" s="21"/>
     </row>
   </sheetData>
-  <sortState ref="G3:I122">
-    <sortCondition descending="1" ref="H2"/>
+  <sortState ref="K4:K112">
+    <sortCondition descending="1" ref="K3"/>
   </sortState>
   <mergeCells count="5">
     <mergeCell ref="J1:K1"/>
@@ -5203,7 +6925,7 @@
   <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A82"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5549,7 +7271,7 @@
   <dimension ref="A1:Q138"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD60"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6374,7 +8096,7 @@
   <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD31"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6415,24 +8137,22 @@
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="28">
-        <v>42464</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
+    <row r="2" spans="1:15" ht="15.75">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
@@ -6476,378 +8196,732 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
+      <c r="A4" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="29">
+        <v>67</v>
+      </c>
+      <c r="C4" s="29">
+        <v>422</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="29">
+        <v>52</v>
+      </c>
+      <c r="G4" s="29">
+        <v>277</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="29">
+        <v>23</v>
+      </c>
+      <c r="K4" s="29">
+        <v>148</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="29">
+        <v>65</v>
+      </c>
+      <c r="O4" s="29">
+        <v>262</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
+      <c r="A5" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="29">
+        <v>13</v>
+      </c>
+      <c r="C5" s="29">
+        <v>39</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="F5" s="30">
+        <v>18</v>
+      </c>
+      <c r="G5" s="30">
+        <v>35</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="J5" s="30">
+        <v>14</v>
+      </c>
+      <c r="K5" s="30">
+        <v>49</v>
+      </c>
+      <c r="L5" s="28"/>
+      <c r="M5" s="29" t="s">
+        <v>636</v>
+      </c>
+      <c r="N5" s="30">
+        <v>14</v>
+      </c>
+      <c r="O5" s="30">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
+      <c r="A6" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="30">
+        <v>11</v>
+      </c>
+      <c r="C6" s="30">
+        <v>40</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" s="29">
+        <v>12</v>
+      </c>
+      <c r="G6" s="29">
+        <v>33</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="29">
+        <v>4</v>
+      </c>
+      <c r="K6" s="29">
+        <v>28</v>
+      </c>
+      <c r="L6" s="28"/>
+      <c r="M6" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="29">
+        <v>14</v>
+      </c>
+      <c r="O6" s="29">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
+      <c r="A7" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="29">
+        <v>10</v>
+      </c>
+      <c r="C7" s="29">
+        <v>29</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="F7" s="29">
+        <v>5</v>
+      </c>
+      <c r="G7" s="29">
+        <v>45</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" s="29">
+        <v>3</v>
+      </c>
+      <c r="K7" s="29">
+        <v>27</v>
+      </c>
+      <c r="L7" s="28"/>
+      <c r="M7" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="N7" s="30">
+        <v>11</v>
+      </c>
+      <c r="O7" s="30">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
+      <c r="A8" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="29">
+        <v>8</v>
+      </c>
+      <c r="C8" s="29">
+        <v>47</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="29">
+        <v>4</v>
+      </c>
+      <c r="G8" s="29">
+        <v>25</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="J8" s="29">
+        <v>1</v>
+      </c>
+      <c r="K8" s="29">
+        <v>13</v>
+      </c>
+      <c r="L8" s="28"/>
+      <c r="M8" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="29">
+        <v>7</v>
+      </c>
+      <c r="O8" s="29">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
+      <c r="A9" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" s="29">
+        <v>7</v>
+      </c>
+      <c r="C9" s="29">
+        <v>49</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="29">
+        <v>4</v>
+      </c>
+      <c r="G9" s="29">
+        <v>10</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="J9" s="29">
+        <v>1</v>
+      </c>
+      <c r="K9" s="29">
+        <v>12</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" s="29">
+        <v>6</v>
+      </c>
+      <c r="O9" s="29">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
+      <c r="A10" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="29">
+        <v>5</v>
+      </c>
+      <c r="C10" s="29">
+        <v>21</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="29">
+        <v>3</v>
+      </c>
+      <c r="G10" s="29">
+        <v>41</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="J10" s="30">
+        <v>0</v>
+      </c>
+      <c r="K10" s="30">
+        <v>13</v>
+      </c>
+      <c r="L10" s="28"/>
+      <c r="M10" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" s="29">
+        <v>4</v>
+      </c>
+      <c r="O10" s="29">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
+      <c r="A11" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="29">
+        <v>2</v>
+      </c>
+      <c r="C11" s="29">
+        <v>17</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="29">
+        <v>3</v>
+      </c>
+      <c r="G11" s="29">
+        <v>8</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="J11" s="29">
+        <v>0</v>
+      </c>
+      <c r="K11" s="29">
+        <v>1</v>
+      </c>
+      <c r="L11" s="28"/>
+      <c r="M11" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="N11" s="30">
+        <v>4</v>
+      </c>
+      <c r="O11" s="30">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
+      <c r="A12" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="29">
+        <v>2</v>
+      </c>
+      <c r="C12" s="29">
+        <v>28</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="29">
+        <v>2</v>
+      </c>
+      <c r="G12" s="29">
+        <v>19</v>
+      </c>
+      <c r="H12" s="28"/>
+      <c r="I12" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="29">
+        <v>0</v>
+      </c>
+      <c r="K12" s="29">
+        <v>5</v>
+      </c>
+      <c r="L12" s="28"/>
+      <c r="M12" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="N12" s="30">
+        <v>3</v>
+      </c>
+      <c r="O12" s="30">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
+      <c r="A13" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="29">
+        <v>2</v>
+      </c>
+      <c r="C13" s="29">
+        <v>16</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="29">
+        <v>1</v>
+      </c>
+      <c r="G13" s="29">
+        <v>21</v>
+      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="N13" s="30">
+        <v>1</v>
+      </c>
+      <c r="O13" s="30">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
+      <c r="A14" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="30">
+        <v>2</v>
+      </c>
+      <c r="C14" s="30">
+        <v>9</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="F14" s="29">
+        <v>0</v>
+      </c>
+      <c r="G14" s="29">
+        <v>8</v>
+      </c>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="N14" s="29">
+        <v>1</v>
+      </c>
+      <c r="O14" s="29">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
+      <c r="A15" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="B15" s="29">
+        <v>1</v>
+      </c>
+      <c r="C15" s="29">
+        <v>18</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="F15" s="29">
+        <v>0</v>
+      </c>
+      <c r="G15" s="29">
+        <v>9</v>
+      </c>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="N15" s="30">
+        <v>0</v>
+      </c>
+      <c r="O15" s="30">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
+      <c r="A16" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="29">
+        <v>1</v>
+      </c>
+      <c r="C16" s="29">
+        <v>18</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="F16" s="29">
+        <v>0</v>
+      </c>
+      <c r="G16" s="29">
+        <v>16</v>
+      </c>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
+      <c r="A17" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="B17" s="29">
+        <v>1</v>
+      </c>
+      <c r="C17" s="29">
+        <v>27</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="F17" s="29">
+        <v>0</v>
+      </c>
+      <c r="G17" s="29">
+        <v>4</v>
+      </c>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
+      <c r="A18" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="B18" s="29">
+        <v>1</v>
+      </c>
+      <c r="C18" s="29">
+        <v>5</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="F18" s="29">
+        <v>0</v>
+      </c>
+      <c r="G18" s="29">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
+      <c r="A19" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="29">
+        <v>1</v>
+      </c>
+      <c r="C19" s="29">
+        <v>34</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29" t="s">
+        <v>638</v>
+      </c>
+      <c r="F19" s="29">
+        <v>0</v>
+      </c>
+      <c r="G19" s="29">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
+      <c r="A20" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" s="29">
+        <v>0</v>
+      </c>
+      <c r="C20" s="29">
+        <v>7</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
     </row>
     <row r="21" spans="1:15" s="11" customFormat="1">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
+      <c r="A21" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="B21" s="29">
+        <v>0</v>
+      </c>
+      <c r="C21" s="29">
+        <v>1</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
     </row>
     <row r="22" spans="1:15" s="11" customFormat="1">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
+      <c r="A22" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="29">
+        <v>0</v>
+      </c>
+      <c r="C22" s="29">
+        <v>1</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="25"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
+      <c r="A23" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="B23" s="29">
+        <v>0</v>
+      </c>
+      <c r="C23" s="29">
+        <v>11</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
+      <c r="A24" s="29" t="s">
+        <v>639</v>
+      </c>
+      <c r="B24" s="29">
+        <v>0</v>
+      </c>
+      <c r="C24" s="29">
+        <v>4</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
+      <c r="A25" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="29">
+        <v>0</v>
+      </c>
+      <c r="C25" s="29">
+        <v>1</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="24"/>
@@ -7361,7 +9435,7 @@
   <dimension ref="A1:M150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7421,7 +9495,7 @@
       </c>
       <c r="B2" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A2)</f>
@@ -7433,20 +9507,20 @@
       </c>
       <c r="E2" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="23">
         <f t="shared" ref="F2:F33" si="0">ROUNDDOWN(SUM(B2:E2),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2" s="23"/>
       <c r="H2" s="23">
         <f t="shared" ref="H2:H33" si="1">IF($F2&gt;6,6,$F2)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J2" s="4">
         <f>SUM(H2:H160)</f>
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="K2" s="4">
         <f>SUM(F2:F160)-J2</f>
@@ -7454,7 +9528,7 @@
       </c>
       <c r="L2" s="4">
         <f>K2+J2</f>
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="M2" s="4">
         <f>COUNTIF(F:F,"&gt;"&amp;6)</f>
@@ -7467,7 +9541,7 @@
       </c>
       <c r="B3" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A3)</f>
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="C3" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A3)</f>
@@ -7483,12 +9557,12 @@
       </c>
       <c r="F3" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G3" s="23"/>
       <c r="H3" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5">
@@ -7497,7 +9571,7 @@
       </c>
       <c r="B4" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A4)</f>
@@ -7513,12 +9587,12 @@
       </c>
       <c r="F4" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5">
@@ -7527,7 +9601,7 @@
       </c>
       <c r="B5" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A5)</f>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="C5" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A5)</f>
@@ -7543,12 +9617,12 @@
       </c>
       <c r="F5" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.5">
@@ -7557,7 +9631,7 @@
       </c>
       <c r="B6" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A6)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A6)</f>
@@ -7573,12 +9647,12 @@
       </c>
       <c r="F6" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16.5">
@@ -7587,7 +9661,7 @@
       </c>
       <c r="B7" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A7)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A7)</f>
@@ -7599,16 +9673,16 @@
       </c>
       <c r="E7" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5">
@@ -7617,7 +9691,7 @@
       </c>
       <c r="B8" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A8)</f>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="C8" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A8)</f>
@@ -7629,16 +9703,16 @@
       </c>
       <c r="E8" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5">
@@ -7647,7 +9721,7 @@
       </c>
       <c r="B9" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A9)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A9)</f>
@@ -7659,16 +9733,16 @@
       </c>
       <c r="E9" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5">
@@ -7677,7 +9751,7 @@
       </c>
       <c r="B10" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A10)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A10)</f>
@@ -7693,12 +9767,12 @@
       </c>
       <c r="F10" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5">
@@ -7707,7 +9781,7 @@
       </c>
       <c r="B11" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A11)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A11)</f>
@@ -7719,16 +9793,16 @@
       </c>
       <c r="E11" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5">
@@ -7737,7 +9811,7 @@
       </c>
       <c r="B12" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A12)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A12)</f>
@@ -7753,12 +9827,12 @@
       </c>
       <c r="F12" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5">
@@ -7767,7 +9841,7 @@
       </c>
       <c r="B13" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A13)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A13)</f>
@@ -7783,12 +9857,12 @@
       </c>
       <c r="F13" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5">
@@ -7797,7 +9871,7 @@
       </c>
       <c r="B14" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A14)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A14)</f>
@@ -7809,16 +9883,16 @@
       </c>
       <c r="E14" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5">
@@ -7827,7 +9901,7 @@
       </c>
       <c r="B15" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A15)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A15)</f>
@@ -7843,12 +9917,12 @@
       </c>
       <c r="F15" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5">
@@ -7857,7 +9931,7 @@
       </c>
       <c r="B16" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A16)</f>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="C16" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A16)</f>
@@ -7873,12 +9947,12 @@
       </c>
       <c r="F16" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.5">
@@ -7887,7 +9961,7 @@
       </c>
       <c r="B17" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A17)</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="C17" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A17)</f>
@@ -7899,16 +9973,16 @@
       </c>
       <c r="E17" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5">
@@ -7917,7 +9991,7 @@
       </c>
       <c r="B18" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A18)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A18)</f>
@@ -7933,12 +10007,12 @@
       </c>
       <c r="F18" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.5">
@@ -7947,7 +10021,7 @@
       </c>
       <c r="B19" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A19)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C19" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A19)</f>
@@ -7959,16 +10033,16 @@
       </c>
       <c r="E19" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5">
@@ -7977,7 +10051,7 @@
       </c>
       <c r="B20" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A20)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A20)</f>
@@ -7993,12 +10067,12 @@
       </c>
       <c r="F20" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20" s="23"/>
       <c r="H20" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.5">
@@ -8007,7 +10081,7 @@
       </c>
       <c r="B21" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A21)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A21)</f>
@@ -8023,12 +10097,12 @@
       </c>
       <c r="F21" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16.5">
@@ -8037,7 +10111,7 @@
       </c>
       <c r="B22" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A22)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C22" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A22)</f>
@@ -8053,12 +10127,12 @@
       </c>
       <c r="F22" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G22" s="23"/>
       <c r="H22" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.5">
@@ -8097,7 +10171,7 @@
       </c>
       <c r="B24" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A24)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A24)</f>
@@ -8109,16 +10183,16 @@
       </c>
       <c r="E24" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16.5">
@@ -8127,7 +10201,7 @@
       </c>
       <c r="B25" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A25)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C25" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A25)</f>
@@ -8143,12 +10217,12 @@
       </c>
       <c r="F25" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16.5">
@@ -8157,7 +10231,7 @@
       </c>
       <c r="B26" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A26)</f>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="C26" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A26)</f>
@@ -8169,16 +10243,16 @@
       </c>
       <c r="E26" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16.5">
@@ -8217,7 +10291,7 @@
       </c>
       <c r="B28" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A28)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C28" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A28)</f>
@@ -8229,16 +10303,16 @@
       </c>
       <c r="E28" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G28" s="23"/>
       <c r="H28" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16.5">
@@ -8247,7 +10321,7 @@
       </c>
       <c r="B29" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A29)</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="C29" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A29)</f>
@@ -8263,12 +10337,12 @@
       </c>
       <c r="F29" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" s="23"/>
       <c r="H29" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.5">
@@ -8307,7 +10381,7 @@
       </c>
       <c r="B31" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A31)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A31)</f>
@@ -8323,12 +10397,12 @@
       </c>
       <c r="F31" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="23"/>
       <c r="H31" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.5">
@@ -8367,7 +10441,7 @@
       </c>
       <c r="B33" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A33)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C33" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A33)</f>
@@ -8383,12 +10457,12 @@
       </c>
       <c r="F33" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G33" s="23"/>
       <c r="H33" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16.5">
@@ -8397,7 +10471,7 @@
       </c>
       <c r="B34" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A34)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C34" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A34)</f>
@@ -8409,16 +10483,16 @@
       </c>
       <c r="E34" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A34)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="23">
         <f t="shared" ref="F34:F65" si="2">ROUNDDOWN(SUM(B34:E34),0)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G34" s="23"/>
       <c r="H34" s="23">
         <f t="shared" ref="H34:H65" si="3">IF($F34&gt;6,6,$F34)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16.5">
@@ -8427,7 +10501,7 @@
       </c>
       <c r="B35" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A35)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C35" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A35)</f>
@@ -8457,7 +10531,7 @@
       </c>
       <c r="B36" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A36)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C36" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A36)</f>
@@ -8469,16 +10543,16 @@
       </c>
       <c r="E36" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="23">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G36" s="23"/>
       <c r="H36" s="23">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="16.5">
@@ -8517,7 +10591,7 @@
       </c>
       <c r="B38" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A38)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C38" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A38)</f>
@@ -8533,12 +10607,12 @@
       </c>
       <c r="F38" s="23">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G38" s="23"/>
       <c r="H38" s="23">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5">
@@ -8547,7 +10621,7 @@
       </c>
       <c r="B39" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A39)</f>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="C39" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A39)</f>
@@ -8563,12 +10637,12 @@
       </c>
       <c r="F39" s="23">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G39" s="23"/>
       <c r="H39" s="23">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="16.5">
@@ -8577,7 +10651,7 @@
       </c>
       <c r="B40" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A40)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C40" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A40)</f>
@@ -8607,7 +10681,7 @@
       </c>
       <c r="B41" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A41)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C41" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A41)</f>
@@ -8623,12 +10697,12 @@
       </c>
       <c r="F41" s="23">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G41" s="23"/>
       <c r="H41" s="23">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="16.5">
@@ -8667,7 +10741,7 @@
       </c>
       <c r="B43" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A43)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C43" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A43)</f>
@@ -8679,16 +10753,16 @@
       </c>
       <c r="E43" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A43)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="23"/>
       <c r="H43" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="16.5">
@@ -8727,7 +10801,7 @@
       </c>
       <c r="B45" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A45)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A45)</f>
@@ -8739,16 +10813,16 @@
       </c>
       <c r="E45" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A45)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G45" s="23"/>
       <c r="H45" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16.5">
@@ -8757,7 +10831,7 @@
       </c>
       <c r="B46" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A46)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="C46" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A46)</f>
@@ -8769,16 +10843,16 @@
       </c>
       <c r="E46" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A46)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G46" s="23"/>
       <c r="H46" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="16.5">
@@ -9207,7 +11281,7 @@
       </c>
       <c r="B61" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A61)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C61" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A61)</f>
@@ -9447,7 +11521,7 @@
       </c>
       <c r="B69" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A69)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A69)</f>
@@ -9463,12 +11537,12 @@
       </c>
       <c r="F69" s="23">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="23"/>
       <c r="H69" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="16.5">
@@ -10299,16 +12373,16 @@
       </c>
       <c r="E97" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A97)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" s="23">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" s="23"/>
       <c r="H97" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="16.5">
@@ -10377,7 +12451,7 @@
       </c>
       <c r="B100" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A100)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C100" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A100)</f>
@@ -10389,16 +12463,16 @@
       </c>
       <c r="E100" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A100)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" s="23">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G100" s="23"/>
       <c r="H100" s="23">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="16.5">
@@ -10977,7 +13051,7 @@
       </c>
       <c r="B120" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A120)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A120)</f>
@@ -10993,12 +13067,12 @@
       </c>
       <c r="F120" s="23">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120" s="23"/>
       <c r="H120" s="23">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="16.5">
@@ -11289,16 +13363,16 @@
       </c>
       <c r="E130" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A130)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" s="23">
         <f t="shared" ref="F130:F150" si="8">ROUNDDOWN(SUM(B130:E130),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G130" s="23"/>
       <c r="H130" s="23">
         <f t="shared" ref="H130:H150" si="9">IF($F130&gt;6,6,$F130)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="16.5">
@@ -11913,8 +13987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11976,7 +14050,7 @@
       </c>
       <c r="B2" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="C2" s="7">
         <f>COUNTIF(盟会战!A$1:X$150,$A2)</f>
@@ -11988,19 +14062,19 @@
       </c>
       <c r="E2" s="7">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="7">
         <f>ROUNDDOWN(SUM(B2:E2),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H2" s="7">
         <f>IF($F2&gt;6,6,$F2)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J2" s="4">
         <f>SUM(H2:H160)</f>
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="K2" s="4">
         <f>SUM(F2:F160)-J2</f>
@@ -12008,7 +14082,7 @@
       </c>
       <c r="L2" s="4">
         <f>K2+J2</f>
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="M2" s="4">
         <f>COUNTIF(F:F,"&gt;"&amp;6)</f>
@@ -12021,7 +14095,7 @@
       </c>
       <c r="B3" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A3)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A3)</f>
@@ -12033,25 +14107,25 @@
       </c>
       <c r="E3" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="23">
         <f>ROUNDDOWN(SUM(B3:E3),0)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G3" s="23"/>
       <c r="H3" s="23">
         <f>IF($F3&gt;6,6,$F3)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="1" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="B4" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A4)</f>
@@ -12063,25 +14137,25 @@
       </c>
       <c r="E4" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="23">
         <f>ROUNDDOWN(SUM(B4:E4),0)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="23">
         <f>IF($F4&gt;6,6,$F4)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="1" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="B5" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A5)</f>
@@ -12093,25 +14167,25 @@
       </c>
       <c r="E5" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="23">
         <f>ROUNDDOWN(SUM(B5:E5),0)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="23">
         <f>IF($F5&gt;6,6,$F5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="B6" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A6)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A6)</f>
@@ -12123,25 +14197,25 @@
       </c>
       <c r="E6" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="23">
         <f>ROUNDDOWN(SUM(B6:E6),0)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23">
         <f>IF($F6&gt;6,6,$F6)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>251</v>
       </c>
       <c r="B7" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A7)</f>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="C7" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A7)</f>
@@ -12153,25 +14227,25 @@
       </c>
       <c r="E7" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="23">
         <f>ROUNDDOWN(SUM(B7:E7),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="23">
         <f>IF($F7&gt;6,6,$F7)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="B8" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A8)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A8)</f>
@@ -12187,21 +14261,21 @@
       </c>
       <c r="F8" s="23">
         <f>ROUNDDOWN(SUM(B8:E8),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23">
         <f>IF($F8&gt;6,6,$F8)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="1" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="B9" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A9)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A9)</f>
@@ -12217,21 +14291,21 @@
       </c>
       <c r="F9" s="23">
         <f>ROUNDDOWN(SUM(B9:E9),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23">
         <f>IF($F9&gt;6,6,$F9)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="1" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="B10" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A10)</f>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="C10" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A10)</f>
@@ -12247,21 +14321,21 @@
       </c>
       <c r="F10" s="23">
         <f>ROUNDDOWN(SUM(B10:E10),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23">
         <f>IF($F10&gt;6,6,$F10)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>222</v>
       </c>
       <c r="B11" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A11)</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="C11" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A11)</f>
@@ -12273,25 +14347,25 @@
       </c>
       <c r="E11" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="23">
         <f>ROUNDDOWN(SUM(B11:E11),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23">
         <f>IF($F11&gt;6,6,$F11)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="1" t="s">
-        <v>156</v>
+        <v>224</v>
       </c>
       <c r="B12" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A12)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A12)</f>
@@ -12303,25 +14377,25 @@
       </c>
       <c r="E12" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="23">
         <f>ROUNDDOWN(SUM(B12:E12),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="23">
         <f>IF($F12&gt;6,6,$F12)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="1" t="s">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="B13" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A13)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A13)</f>
@@ -12333,25 +14407,25 @@
       </c>
       <c r="E13" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="23">
         <f>ROUNDDOWN(SUM(B13:E13),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="23">
         <f>IF($F13&gt;6,6,$F13)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="1" t="s">
-        <v>222</v>
+        <v>396</v>
       </c>
       <c r="B14" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A14)</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="C14" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A14)</f>
@@ -12363,25 +14437,25 @@
       </c>
       <c r="E14" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="23">
         <f>ROUNDDOWN(SUM(B14:E14),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23">
         <f>IF($F14&gt;6,6,$F14)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="1" t="s">
-        <v>224</v>
+        <v>120</v>
       </c>
       <c r="B15" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A15)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A15)</f>
@@ -12397,21 +14471,21 @@
       </c>
       <c r="F15" s="23">
         <f>ROUNDDOWN(SUM(B15:E15),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23">
         <f>IF($F15&gt;6,6,$F15)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="1" t="s">
-        <v>223</v>
+        <v>68</v>
       </c>
       <c r="B16" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A16)</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="C16" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A16)</f>
@@ -12427,21 +14501,21 @@
       </c>
       <c r="F16" s="23">
         <f>ROUNDDOWN(SUM(B16:E16),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="23">
         <f>IF($F16&gt;6,6,$F16)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="1" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="B17" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A17)</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="C17" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A17)</f>
@@ -12457,12 +14531,12 @@
       </c>
       <c r="F17" s="23">
         <f>ROUNDDOWN(SUM(B17:E17),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="23">
         <f>IF($F17&gt;6,6,$F17)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5">
@@ -12471,7 +14545,7 @@
       </c>
       <c r="B18" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A18)</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="C18" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A18)</f>
@@ -12487,21 +14561,21 @@
       </c>
       <c r="F18" s="23">
         <f>ROUNDDOWN(SUM(B18:E18),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23">
         <f>IF($F18&gt;6,6,$F18)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="1" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="B19" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A19)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A19)</f>
@@ -12517,21 +14591,21 @@
       </c>
       <c r="F19" s="23">
         <f>ROUNDDOWN(SUM(B19:E19),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="23">
         <f>IF($F19&gt;6,6,$F19)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="1" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="B20" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A20)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A20)</f>
@@ -12543,21 +14617,21 @@
       </c>
       <c r="E20" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="23">
         <f>ROUNDDOWN(SUM(B20:E20),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20" s="23"/>
       <c r="H20" s="23">
         <f>IF($F20&gt;6,6,$F20)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B21" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A21)</f>
@@ -12573,25 +14647,25 @@
       </c>
       <c r="E21" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="23">
         <f>ROUNDDOWN(SUM(B21:E21),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="23">
         <f>IF($F21&gt;6,6,$F21)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="1" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="B22" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A22)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A22)</f>
@@ -12607,17 +14681,17 @@
       </c>
       <c r="F22" s="23">
         <f>ROUNDDOWN(SUM(B22:E22),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="23"/>
       <c r="H22" s="23">
         <f>IF($F22&gt;6,6,$F22)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B23" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A23)</f>
@@ -12647,11 +14721,11 @@
     </row>
     <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B24" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A24)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C24" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A24)</f>
@@ -12677,11 +14751,11 @@
     </row>
     <row r="25" spans="1:8" ht="16.5">
       <c r="A25" s="1" t="s">
-        <v>228</v>
+        <v>159</v>
       </c>
       <c r="B25" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A25)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C25" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A25)</f>
@@ -12707,7 +14781,7 @@
     </row>
     <row r="26" spans="1:8" ht="16.5">
       <c r="A26" s="1" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="B26" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A26)</f>
@@ -12737,11 +14811,11 @@
     </row>
     <row r="27" spans="1:8" ht="16.5">
       <c r="A27" s="1" t="s">
-        <v>396</v>
+        <v>219</v>
       </c>
       <c r="B27" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A27)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C27" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A27)</f>
@@ -12767,11 +14841,11 @@
     </row>
     <row r="28" spans="1:8" ht="16.5">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>128</v>
       </c>
       <c r="B28" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A28)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="C28" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A28)</f>
@@ -12787,21 +14861,21 @@
       </c>
       <c r="F28" s="23">
         <f>ROUNDDOWN(SUM(B28:E28),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="23"/>
       <c r="H28" s="23">
         <f>IF($F28&gt;6,6,$F28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16.5">
       <c r="A29" s="1" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="B29" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A29)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="C29" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A29)</f>
@@ -12817,21 +14891,21 @@
       </c>
       <c r="F29" s="23">
         <f>ROUNDDOWN(SUM(B29:E29),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="23"/>
       <c r="H29" s="23">
         <f>IF($F29&gt;6,6,$F29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.5">
       <c r="A30" s="1" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="B30" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A30)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="C30" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A30)</f>
@@ -12847,21 +14921,21 @@
       </c>
       <c r="F30" s="23">
         <f>ROUNDDOWN(SUM(B30:E30),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="23"/>
       <c r="H30" s="23">
         <f>IF($F30&gt;6,6,$F30)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16.5">
       <c r="A31" s="1" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="B31" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A31)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C31" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A31)</f>
@@ -12877,21 +14951,21 @@
       </c>
       <c r="F31" s="23">
         <f>ROUNDDOWN(SUM(B31:E31),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G31" s="23"/>
       <c r="H31" s="23">
         <f>IF($F31&gt;6,6,$F31)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.5">
       <c r="A32" s="1" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="B32" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A32)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="C32" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A32)</f>
@@ -12907,12 +14981,12 @@
       </c>
       <c r="F32" s="23">
         <f>ROUNDDOWN(SUM(B32:E32),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="23"/>
       <c r="H32" s="23">
         <f>IF($F32&gt;6,6,$F32)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16.5">
@@ -12933,25 +15007,25 @@
       </c>
       <c r="E33" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="23">
         <f>ROUNDDOWN(SUM(B33:E33),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="23"/>
       <c r="H33" s="23">
         <f>IF($F33&gt;6,6,$F33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16.5">
       <c r="A34" s="1" t="s">
-        <v>173</v>
+        <v>88</v>
       </c>
       <c r="B34" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A34)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A34)</f>
@@ -12967,21 +15041,21 @@
       </c>
       <c r="F34" s="23">
         <f>ROUNDDOWN(SUM(B34:E34),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="23"/>
       <c r="H34" s="23">
         <f>IF($F34&gt;6,6,$F34)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16.5">
       <c r="A35" s="1" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="B35" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A35)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C35" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A35)</f>
@@ -12997,21 +15071,21 @@
       </c>
       <c r="F35" s="23">
         <f>ROUNDDOWN(SUM(B35:E35),0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G35" s="23"/>
       <c r="H35" s="23">
         <f>IF($F35&gt;6,6,$F35)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16.5">
       <c r="A36" s="1" t="s">
-        <v>171</v>
+        <v>221</v>
       </c>
       <c r="B36" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A36)</f>
@@ -13027,17 +15101,17 @@
       </c>
       <c r="F36" s="23">
         <f>ROUNDDOWN(SUM(B36:E36),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="23"/>
       <c r="H36" s="23">
         <f>IF($F36&gt;6,6,$F36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="16.5">
       <c r="A37" s="1" t="s">
-        <v>214</v>
+        <v>393</v>
       </c>
       <c r="B37" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A37)</f>
@@ -13053,21 +15127,21 @@
       </c>
       <c r="E37" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A37)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="23">
         <f>ROUNDDOWN(SUM(B37:E37),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="23"/>
       <c r="H37" s="23">
         <f>IF($F37&gt;6,6,$F37)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.5">
       <c r="A38" s="1" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="B38" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A38)</f>
@@ -13097,7 +15171,7 @@
     </row>
     <row r="39" spans="1:8" ht="16.5">
       <c r="A39" s="1" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="B39" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A39)</f>
@@ -13127,7 +15201,7 @@
     </row>
     <row r="40" spans="1:8" ht="16.5">
       <c r="A40" s="1" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="B40" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A40)</f>
@@ -13157,7 +15231,7 @@
     </row>
     <row r="41" spans="1:8" ht="16.5">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B41" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A41)</f>
@@ -13187,7 +15261,7 @@
     </row>
     <row r="42" spans="1:8" ht="16.5">
       <c r="A42" s="1" t="s">
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="B42" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A42)</f>
@@ -13217,11 +15291,11 @@
     </row>
     <row r="43" spans="1:8" ht="16.5">
       <c r="A43" s="1" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="B43" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A43)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C43" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A43)</f>
@@ -13247,7 +15321,7 @@
     </row>
     <row r="44" spans="1:8" ht="16.5">
       <c r="A44" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B44" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A44)</f>
@@ -13277,7 +15351,7 @@
     </row>
     <row r="45" spans="1:8" ht="16.5">
       <c r="A45" s="1" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="B45" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A45)</f>
@@ -13307,7 +15381,7 @@
     </row>
     <row r="46" spans="1:8" ht="16.5">
       <c r="A46" s="1" t="s">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="B46" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A46)</f>
@@ -13337,11 +15411,11 @@
     </row>
     <row r="47" spans="1:8" ht="16.5">
       <c r="A47" s="1" t="s">
-        <v>220</v>
+        <v>262</v>
       </c>
       <c r="B47" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A47)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C47" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A47)</f>
@@ -13367,7 +15441,7 @@
     </row>
     <row r="48" spans="1:8" ht="16.5">
       <c r="A48" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B48" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A48)</f>
@@ -13397,7 +15471,7 @@
     </row>
     <row r="49" spans="1:8" ht="16.5">
       <c r="A49" s="1" t="s">
-        <v>363</v>
+        <v>225</v>
       </c>
       <c r="B49" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A49)</f>
@@ -13427,7 +15501,7 @@
     </row>
     <row r="50" spans="1:8" ht="16.5">
       <c r="A50" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B50" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A50)</f>
@@ -13457,7 +15531,7 @@
     </row>
     <row r="51" spans="1:8" ht="16.5">
       <c r="A51" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B51" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A51)</f>
@@ -13487,7 +15561,7 @@
     </row>
     <row r="52" spans="1:8" ht="16.5">
       <c r="A52" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B52" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A52)</f>
@@ -13517,7 +15591,7 @@
     </row>
     <row r="53" spans="1:8" ht="16.5">
       <c r="A53" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B53" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A53)</f>
@@ -13547,7 +15621,7 @@
     </row>
     <row r="54" spans="1:8" ht="16.5">
       <c r="A54" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B54" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A54)</f>
@@ -13577,7 +15651,7 @@
     </row>
     <row r="55" spans="1:8" ht="16.5">
       <c r="A55" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B55" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A55)</f>
@@ -13607,7 +15681,7 @@
     </row>
     <row r="56" spans="1:8" ht="16.5">
       <c r="A56" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B56" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A56)</f>
@@ -13637,7 +15711,7 @@
     </row>
     <row r="57" spans="1:8" ht="16.5">
       <c r="A57" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B57" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A57)</f>
@@ -13667,7 +15741,7 @@
     </row>
     <row r="58" spans="1:8" ht="16.5">
       <c r="A58" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B58" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A58)</f>
@@ -13697,7 +15771,7 @@
     </row>
     <row r="59" spans="1:8" ht="16.5">
       <c r="A59" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B59" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A59)</f>
@@ -13727,7 +15801,7 @@
     </row>
     <row r="60" spans="1:8" ht="16.5">
       <c r="A60" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B60" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A60)</f>
@@ -13757,11 +15831,11 @@
     </row>
     <row r="61" spans="1:8" ht="16.5">
       <c r="A61" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B61" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A61)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C61" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A61)</f>
@@ -13787,7 +15861,7 @@
     </row>
     <row r="62" spans="1:8" ht="16.5">
       <c r="A62" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B62" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A62)</f>
@@ -13817,7 +15891,7 @@
     </row>
     <row r="63" spans="1:8" ht="16.5">
       <c r="A63" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B63" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A63)</f>
@@ -13847,7 +15921,7 @@
     </row>
     <row r="64" spans="1:8" ht="16.5">
       <c r="A64" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B64" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A64)</f>
@@ -13877,7 +15951,7 @@
     </row>
     <row r="65" spans="1:8" ht="16.5">
       <c r="A65" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B65" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A65)</f>
@@ -13907,7 +15981,7 @@
     </row>
     <row r="66" spans="1:8" ht="16.5">
       <c r="A66" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B66" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A66)</f>
@@ -13937,7 +16011,7 @@
     </row>
     <row r="67" spans="1:8" ht="16.5">
       <c r="A67" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B67" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A67)</f>
@@ -13967,7 +16041,7 @@
     </row>
     <row r="68" spans="1:8" ht="16.5">
       <c r="A68" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B68" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A68)</f>
@@ -13997,7 +16071,7 @@
     </row>
     <row r="69" spans="1:8" ht="16.5">
       <c r="A69" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B69" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A69)</f>
@@ -14027,7 +16101,7 @@
     </row>
     <row r="70" spans="1:8" ht="16.5">
       <c r="A70" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B70" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A70)</f>
@@ -14057,7 +16131,7 @@
     </row>
     <row r="71" spans="1:8" ht="16.5">
       <c r="A71" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B71" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A71)</f>
@@ -14087,7 +16161,7 @@
     </row>
     <row r="72" spans="1:8" ht="16.5">
       <c r="A72" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B72" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A72)</f>
@@ -14117,7 +16191,7 @@
     </row>
     <row r="73" spans="1:8" ht="16.5">
       <c r="A73" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B73" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A73)</f>
@@ -14147,7 +16221,7 @@
     </row>
     <row r="74" spans="1:8" ht="16.5">
       <c r="A74" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B74" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A74)</f>
@@ -14177,7 +16251,7 @@
     </row>
     <row r="75" spans="1:8" ht="16.5">
       <c r="A75" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B75" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A75)</f>
@@ -14207,7 +16281,7 @@
     </row>
     <row r="76" spans="1:8" ht="16.5">
       <c r="A76" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B76" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A76)</f>
@@ -14237,7 +16311,7 @@
     </row>
     <row r="77" spans="1:8" ht="16.5">
       <c r="A77" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B77" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A77)</f>
@@ -14267,7 +16341,7 @@
     </row>
     <row r="78" spans="1:8" ht="16.5">
       <c r="A78" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B78" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A78)</f>
@@ -14297,7 +16371,7 @@
     </row>
     <row r="79" spans="1:8" ht="16.5">
       <c r="A79" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B79" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A79)</f>
@@ -16507,7 +18581,7 @@
       </c>
       <c r="B2" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A2)</f>
@@ -16523,16 +18597,16 @@
       </c>
       <c r="F2" s="23">
         <f t="shared" ref="F2:F33" si="0">ROUNDDOWN(SUM(B2:E2),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2" s="23"/>
       <c r="H2" s="23">
         <f t="shared" ref="H2:H33" si="1">IF($F2&gt;6,6,$F2)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J2" s="4">
         <f>SUM(H2:H160)</f>
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="K2" s="4">
         <f>SUM(F2:F160)-J2</f>
@@ -16540,7 +18614,7 @@
       </c>
       <c r="L2" s="4">
         <f>K2+J2</f>
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="M2" s="4">
         <f>COUNTIF(F:F,"&gt;"&amp;6)</f>
@@ -16553,7 +18627,7 @@
       </c>
       <c r="B3" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A3)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A3)</f>
@@ -16565,16 +18639,16 @@
       </c>
       <c r="E3" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G3" s="23"/>
       <c r="H3" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5">
@@ -16583,7 +18657,7 @@
       </c>
       <c r="B4" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A4)</f>
@@ -16599,12 +18673,12 @@
       </c>
       <c r="F4" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5">
@@ -16613,7 +18687,7 @@
       </c>
       <c r="B5" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A5)</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="C5" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A5)</f>
@@ -16629,12 +18703,12 @@
       </c>
       <c r="F5" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.5">
@@ -16643,7 +18717,7 @@
       </c>
       <c r="B6" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A6)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A6)</f>
@@ -16655,16 +18729,16 @@
       </c>
       <c r="E6" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16.5">
@@ -16673,7 +18747,7 @@
       </c>
       <c r="B7" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A7)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A7)</f>
@@ -16689,12 +18763,12 @@
       </c>
       <c r="F7" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5">
@@ -16703,7 +18777,7 @@
       </c>
       <c r="B8" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A8)</f>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="C8" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A8)</f>
@@ -16719,12 +18793,12 @@
       </c>
       <c r="F8" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5">
@@ -16733,7 +18807,7 @@
       </c>
       <c r="B9" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A9)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A9)</f>
@@ -16749,12 +18823,12 @@
       </c>
       <c r="F9" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5">
@@ -16763,7 +18837,7 @@
       </c>
       <c r="B10" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A10)</f>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="C10" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A10)</f>
@@ -16779,12 +18853,12 @@
       </c>
       <c r="F10" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5">
@@ -16793,7 +18867,7 @@
       </c>
       <c r="B11" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A11)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A11)</f>
@@ -16809,12 +18883,12 @@
       </c>
       <c r="F11" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5">
@@ -16823,7 +18897,7 @@
       </c>
       <c r="B12" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A12)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A12)</f>
@@ -16839,12 +18913,12 @@
       </c>
       <c r="F12" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5">
@@ -16853,7 +18927,7 @@
       </c>
       <c r="B13" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A13)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="C13" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A13)</f>
@@ -16865,16 +18939,16 @@
       </c>
       <c r="E13" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5">
@@ -16883,7 +18957,7 @@
       </c>
       <c r="B14" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A14)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A14)</f>
@@ -16899,12 +18973,12 @@
       </c>
       <c r="F14" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5">
@@ -16913,7 +18987,7 @@
       </c>
       <c r="B15" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A15)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A15)</f>
@@ -16929,12 +19003,12 @@
       </c>
       <c r="F15" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5">
@@ -16943,7 +19017,7 @@
       </c>
       <c r="B16" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A16)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C16" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A16)</f>
@@ -16973,7 +19047,7 @@
       </c>
       <c r="B17" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A17)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A17)</f>
@@ -16989,12 +19063,12 @@
       </c>
       <c r="F17" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5">
@@ -17033,7 +19107,7 @@
       </c>
       <c r="B19" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A19)</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="C19" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A19)</f>
@@ -17049,12 +19123,12 @@
       </c>
       <c r="F19" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5">
@@ -17075,16 +19149,16 @@
       </c>
       <c r="E20" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="23"/>
       <c r="H20" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.5">
@@ -17093,7 +19167,7 @@
       </c>
       <c r="B21" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A21)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="C21" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A21)</f>
@@ -17105,16 +19179,16 @@
       </c>
       <c r="E21" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16.5">
@@ -17123,7 +19197,7 @@
       </c>
       <c r="B22" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A22)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A22)</f>
@@ -17139,12 +19213,12 @@
       </c>
       <c r="F22" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22" s="23"/>
       <c r="H22" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.5">
@@ -17153,7 +19227,7 @@
       </c>
       <c r="B23" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A23)</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="C23" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A23)</f>
@@ -17169,12 +19243,12 @@
       </c>
       <c r="F23" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16.5">
@@ -17195,16 +19269,16 @@
       </c>
       <c r="E24" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16.5">
@@ -17213,7 +19287,7 @@
       </c>
       <c r="B25" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A25)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C25" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A25)</f>
@@ -17229,12 +19303,12 @@
       </c>
       <c r="F25" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16.5">
@@ -17243,7 +19317,7 @@
       </c>
       <c r="B26" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A26)</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="C26" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A26)</f>
@@ -17259,12 +19333,12 @@
       </c>
       <c r="F26" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16.5">
@@ -17273,7 +19347,7 @@
       </c>
       <c r="B27" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A27)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A27)</f>
@@ -17289,12 +19363,12 @@
       </c>
       <c r="F27" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27" s="23"/>
       <c r="H27" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.5">
@@ -17303,7 +19377,7 @@
       </c>
       <c r="B28" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A28)</f>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="C28" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A28)</f>
@@ -17315,16 +19389,16 @@
       </c>
       <c r="E28" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G28" s="23"/>
       <c r="H28" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16.5">
@@ -17333,7 +19407,7 @@
       </c>
       <c r="B29" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A29)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C29" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A29)</f>
@@ -17349,12 +19423,12 @@
       </c>
       <c r="F29" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G29" s="23"/>
       <c r="H29" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.5">
@@ -17363,7 +19437,7 @@
       </c>
       <c r="B30" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A30)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A30)</f>
@@ -17379,12 +19453,12 @@
       </c>
       <c r="F30" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G30" s="23"/>
       <c r="H30" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16.5">
@@ -17423,7 +19497,7 @@
       </c>
       <c r="B32" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A32)</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="C32" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A32)</f>
@@ -17439,12 +19513,12 @@
       </c>
       <c r="F32" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" s="23"/>
       <c r="H32" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16.5">
@@ -17453,7 +19527,7 @@
       </c>
       <c r="B33" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A33)</f>
@@ -17469,12 +19543,12 @@
       </c>
       <c r="F33" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="23"/>
       <c r="H33" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16.5">
@@ -17483,7 +19557,7 @@
       </c>
       <c r="B34" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A34)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A34)</f>
@@ -17499,12 +19573,12 @@
       </c>
       <c r="F34" s="23">
         <f t="shared" ref="F34:F65" si="2">ROUNDDOWN(SUM(B34:E34),0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G34" s="23"/>
       <c r="H34" s="23">
         <f t="shared" ref="H34:H65" si="3">IF($F34&gt;6,6,$F34)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16.5">
@@ -17513,7 +19587,7 @@
       </c>
       <c r="B35" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A35)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A35)</f>
@@ -17529,12 +19603,12 @@
       </c>
       <c r="F35" s="23">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G35" s="23"/>
       <c r="H35" s="23">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16.5">
@@ -17573,7 +19647,7 @@
       </c>
       <c r="B37" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A37)</f>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="C37" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A37)</f>
@@ -17589,12 +19663,12 @@
       </c>
       <c r="F37" s="23">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G37" s="23"/>
       <c r="H37" s="23">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.5">
@@ -17603,7 +19677,7 @@
       </c>
       <c r="B38" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A38)</f>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="C38" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A38)</f>
@@ -17619,12 +19693,12 @@
       </c>
       <c r="F38" s="23">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G38" s="23"/>
       <c r="H38" s="23">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5">
@@ -17633,7 +19707,7 @@
       </c>
       <c r="B39" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A39)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C39" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A39)</f>
@@ -17649,12 +19723,12 @@
       </c>
       <c r="F39" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G39" s="23"/>
       <c r="H39" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="16.5">
@@ -17663,7 +19737,7 @@
       </c>
       <c r="B40" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A40)</f>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="C40" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A40)</f>
@@ -17679,12 +19753,12 @@
       </c>
       <c r="F40" s="23">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G40" s="23"/>
       <c r="H40" s="23">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="16.5">
@@ -17693,7 +19767,7 @@
       </c>
       <c r="B41" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A41)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C41" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A41)</f>
@@ -17709,12 +19783,12 @@
       </c>
       <c r="F41" s="23">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G41" s="23"/>
       <c r="H41" s="23">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="16.5">
@@ -17723,7 +19797,7 @@
       </c>
       <c r="B42" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A42)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A42)</f>
@@ -17739,12 +19813,12 @@
       </c>
       <c r="F42" s="23">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G42" s="23"/>
       <c r="H42" s="23">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="16.5">
@@ -17753,7 +19827,7 @@
       </c>
       <c r="B43" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A43)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C43" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A43)</f>
@@ -17765,16 +19839,16 @@
       </c>
       <c r="E43" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A43)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G43" s="23"/>
       <c r="H43" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="16.5">
@@ -17813,7 +19887,7 @@
       </c>
       <c r="B45" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A45)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C45" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A45)</f>
@@ -17829,12 +19903,12 @@
       </c>
       <c r="F45" s="23">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G45" s="23"/>
       <c r="H45" s="23">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16.5">
@@ -17843,7 +19917,7 @@
       </c>
       <c r="B46" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A46)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C46" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A46)</f>
@@ -17873,7 +19947,7 @@
       </c>
       <c r="B47" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A47)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C47" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A47)</f>
@@ -17903,7 +19977,7 @@
       </c>
       <c r="B48" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A48)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A48)</f>
@@ -17919,12 +19993,12 @@
       </c>
       <c r="F48" s="23">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" s="23"/>
       <c r="H48" s="23">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16.5">
@@ -17933,7 +20007,7 @@
       </c>
       <c r="B49" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A49)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C49" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A49)</f>
@@ -17949,12 +20023,12 @@
       </c>
       <c r="F49" s="23">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G49" s="23"/>
       <c r="H49" s="23">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="16.5">
@@ -17963,7 +20037,7 @@
       </c>
       <c r="B50" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A50)</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="C50" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A50)</f>
@@ -17979,12 +20053,12 @@
       </c>
       <c r="F50" s="23">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50" s="23"/>
       <c r="H50" s="23">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="16.5">
@@ -17993,7 +20067,7 @@
       </c>
       <c r="B51" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A51)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A51)</f>
@@ -18009,12 +20083,12 @@
       </c>
       <c r="F51" s="23">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51" s="23"/>
       <c r="H51" s="23">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="16.5">
@@ -18023,7 +20097,7 @@
       </c>
       <c r="B52" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A52)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A52)</f>
@@ -18039,12 +20113,12 @@
       </c>
       <c r="F52" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="23"/>
       <c r="H52" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="16.5">
@@ -18053,7 +20127,7 @@
       </c>
       <c r="B53" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A53)</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="C53" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A53)</f>
@@ -18069,12 +20143,12 @@
       </c>
       <c r="F53" s="23">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" s="23"/>
       <c r="H53" s="23">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="16.5">
@@ -18143,7 +20217,7 @@
       </c>
       <c r="B56" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A56)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="C56" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A56)</f>
@@ -18159,12 +20233,12 @@
       </c>
       <c r="F56" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" s="23"/>
       <c r="H56" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="16.5">
@@ -18233,7 +20307,7 @@
       </c>
       <c r="B59" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A59)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="C59" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A59)</f>
@@ -18249,12 +20323,12 @@
       </c>
       <c r="F59" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" s="23"/>
       <c r="H59" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="16.5">
@@ -18383,7 +20457,7 @@
       </c>
       <c r="B64" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A64)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C64" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A64)</f>
@@ -18893,7 +20967,7 @@
       </c>
       <c r="B81" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A81)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A81)</f>
@@ -18909,12 +20983,12 @@
       </c>
       <c r="F81" s="23">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" s="23"/>
       <c r="H81" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="16.5">
@@ -19073,7 +21147,7 @@
       </c>
       <c r="B87" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A87)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C87" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A87)</f>
@@ -19493,7 +21567,7 @@
       </c>
       <c r="B101" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A101)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C101" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A101)</f>
@@ -20483,7 +22557,7 @@
       </c>
       <c r="B134" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A134)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C134" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A134)</f>
@@ -21071,7 +23145,7 @@
       </c>
       <c r="B2" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A2)</f>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="C2" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A2)</f>
@@ -21083,20 +23157,20 @@
       </c>
       <c r="E2" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="23">
         <f t="shared" ref="F2:F33" si="0">ROUNDDOWN(SUM(B2:E2),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2" s="23"/>
       <c r="H2" s="23">
         <f t="shared" ref="H2:H33" si="1">IF($F2&gt;6,6,$F2)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J2" s="4">
         <f>SUM(H2:H160)</f>
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="K2" s="4">
         <f>SUM(F2:F160)-J2</f>
@@ -21104,7 +23178,7 @@
       </c>
       <c r="L2" s="4">
         <f>K2+J2</f>
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="M2" s="4">
         <f>COUNTIF(F:F,"&gt;"&amp;6)</f>
@@ -21117,7 +23191,7 @@
       </c>
       <c r="B3" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A3)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A3)</f>
@@ -21129,16 +23203,16 @@
       </c>
       <c r="E3" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G3" s="23"/>
       <c r="H3" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5">
@@ -21147,7 +23221,7 @@
       </c>
       <c r="B4" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A4)</f>
@@ -21163,12 +23237,12 @@
       </c>
       <c r="F4" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5">
@@ -21177,7 +23251,7 @@
       </c>
       <c r="B5" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A5)</f>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="C5" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A5)</f>
@@ -21189,16 +23263,16 @@
       </c>
       <c r="E5" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.5">
@@ -21207,7 +23281,7 @@
       </c>
       <c r="B6" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A6)</f>
@@ -21223,12 +23297,12 @@
       </c>
       <c r="F6" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16.5">
@@ -21237,7 +23311,7 @@
       </c>
       <c r="B7" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A7)</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="C7" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A7)</f>
@@ -21253,12 +23327,12 @@
       </c>
       <c r="F7" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5">
@@ -21267,7 +23341,7 @@
       </c>
       <c r="B8" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A8)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A8)</f>
@@ -21283,12 +23357,12 @@
       </c>
       <c r="F8" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5">
@@ -21297,7 +23371,7 @@
       </c>
       <c r="B9" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A9)</f>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="C9" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A9)</f>
@@ -21313,12 +23387,12 @@
       </c>
       <c r="F9" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5">
@@ -21327,7 +23401,7 @@
       </c>
       <c r="B10" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A10)</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="C10" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A10)</f>
@@ -21343,12 +23417,12 @@
       </c>
       <c r="F10" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5">
@@ -21357,7 +23431,7 @@
       </c>
       <c r="B11" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A11)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A11)</f>
@@ -21369,16 +23443,16 @@
       </c>
       <c r="E11" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5">
@@ -21387,7 +23461,7 @@
       </c>
       <c r="B12" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A12)</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="C12" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A12)</f>
@@ -21399,16 +23473,16 @@
       </c>
       <c r="E12" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5">
@@ -21417,7 +23491,7 @@
       </c>
       <c r="B13" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A13)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A13)</f>
@@ -21429,16 +23503,16 @@
       </c>
       <c r="E13" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5">
@@ -21447,7 +23521,7 @@
       </c>
       <c r="B14" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A14)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A14)</f>
@@ -21463,12 +23537,12 @@
       </c>
       <c r="F14" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5">
@@ -21507,7 +23581,7 @@
       </c>
       <c r="B16" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A16)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A16)</f>
@@ -21523,12 +23597,12 @@
       </c>
       <c r="F16" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.5">
@@ -21537,7 +23611,7 @@
       </c>
       <c r="B17" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A17)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A17)</f>
@@ -21553,12 +23627,12 @@
       </c>
       <c r="F17" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5">
@@ -21567,7 +23641,7 @@
       </c>
       <c r="B18" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A18)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C18" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A18)</f>
@@ -21583,12 +23657,12 @@
       </c>
       <c r="F18" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.5">
@@ -21597,7 +23671,7 @@
       </c>
       <c r="B19" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A19)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A19)</f>
@@ -21613,12 +23687,12 @@
       </c>
       <c r="F19" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.5">
@@ -21627,7 +23701,7 @@
       </c>
       <c r="B20" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A20)</f>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="C20" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A20)</f>
@@ -21643,12 +23717,12 @@
       </c>
       <c r="F20" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20" s="23"/>
       <c r="H20" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.5">
@@ -21657,7 +23731,7 @@
       </c>
       <c r="B21" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A21)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C21" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A21)</f>
@@ -21673,12 +23747,12 @@
       </c>
       <c r="F21" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16.5">
@@ -21717,7 +23791,7 @@
       </c>
       <c r="B23" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A23)</f>
@@ -21733,12 +23807,12 @@
       </c>
       <c r="F23" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16.5">
@@ -21747,7 +23821,7 @@
       </c>
       <c r="B24" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A24)</f>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="C24" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A24)</f>
@@ -21759,16 +23833,16 @@
       </c>
       <c r="E24" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16.5">
@@ -21777,7 +23851,7 @@
       </c>
       <c r="B25" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A25)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C25" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A25)</f>
@@ -21793,12 +23867,12 @@
       </c>
       <c r="F25" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16.5">
@@ -21807,7 +23881,7 @@
       </c>
       <c r="B26" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A26)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C26" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A26)</f>
@@ -21823,12 +23897,12 @@
       </c>
       <c r="F26" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16.5">
@@ -21837,7 +23911,7 @@
       </c>
       <c r="B27" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A27)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A27)</f>
@@ -21853,12 +23927,12 @@
       </c>
       <c r="F27" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27" s="23"/>
       <c r="H27" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.5">
@@ -21867,7 +23941,7 @@
       </c>
       <c r="B28" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A28)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A28)</f>
@@ -21883,12 +23957,12 @@
       </c>
       <c r="F28" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G28" s="23"/>
       <c r="H28" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16.5">
@@ -21897,7 +23971,7 @@
       </c>
       <c r="B29" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A29)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A29)</f>
@@ -21913,12 +23987,12 @@
       </c>
       <c r="F29" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" s="23"/>
       <c r="H29" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.5">
@@ -21927,7 +24001,7 @@
       </c>
       <c r="B30" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A30)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A30)</f>
@@ -21943,12 +24017,12 @@
       </c>
       <c r="F30" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" s="23"/>
       <c r="H30" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16.5">
@@ -21957,7 +24031,7 @@
       </c>
       <c r="B31" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A31)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A31)</f>
@@ -21973,12 +24047,12 @@
       </c>
       <c r="F31" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G31" s="23"/>
       <c r="H31" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.5">
@@ -21987,7 +24061,7 @@
       </c>
       <c r="B32" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A32)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="C32" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A32)</f>
@@ -22003,12 +24077,12 @@
       </c>
       <c r="F32" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="23"/>
       <c r="H32" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16.5">
@@ -22017,7 +24091,7 @@
       </c>
       <c r="B33" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A33)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A33)</f>
@@ -22033,12 +24107,12 @@
       </c>
       <c r="F33" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" s="23"/>
       <c r="H33" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16.5">
@@ -22047,7 +24121,7 @@
       </c>
       <c r="B34" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A34)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A34)</f>
@@ -22059,16 +24133,16 @@
       </c>
       <c r="E34" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A34)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="23">
         <f t="shared" ref="F34:F65" si="2">ROUNDDOWN(SUM(B34:E34),0)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G34" s="23"/>
       <c r="H34" s="23">
         <f t="shared" ref="H34:H65" si="3">IF($F34&gt;6,6,$F34)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16.5">
@@ -22107,7 +24181,7 @@
       </c>
       <c r="B36" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A36)</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="C36" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A36)</f>
@@ -22123,12 +24197,12 @@
       </c>
       <c r="F36" s="23">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" s="23"/>
       <c r="H36" s="23">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="16.5">
@@ -22167,7 +24241,7 @@
       </c>
       <c r="B38" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A38)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A38)</f>
@@ -22183,12 +24257,12 @@
       </c>
       <c r="F38" s="23">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" s="23"/>
       <c r="H38" s="23">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5">
@@ -22197,7 +24271,7 @@
       </c>
       <c r="B39" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A39)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C39" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A39)</f>
@@ -22213,12 +24287,12 @@
       </c>
       <c r="F39" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G39" s="23"/>
       <c r="H39" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="16.5">
@@ -22227,7 +24301,7 @@
       </c>
       <c r="B40" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A40)</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="C40" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A40)</f>
@@ -22243,12 +24317,12 @@
       </c>
       <c r="F40" s="23">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" s="23"/>
       <c r="H40" s="23">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="16.5">
@@ -22377,7 +24451,7 @@
       </c>
       <c r="B45" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A45)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A45)</f>
@@ -22393,12 +24467,12 @@
       </c>
       <c r="F45" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="23"/>
       <c r="H45" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16.5">
@@ -22407,7 +24481,7 @@
       </c>
       <c r="B46" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A46)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C46" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A46)</f>
@@ -22467,7 +24541,7 @@
       </c>
       <c r="B48" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A48)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C48" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A48)</f>
@@ -22509,16 +24583,16 @@
       </c>
       <c r="E49" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A49)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" s="23"/>
       <c r="H49" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="16.5">
@@ -22617,7 +24691,7 @@
       </c>
       <c r="B53" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A53)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C53" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A53)</f>
@@ -22633,12 +24707,12 @@
       </c>
       <c r="F53" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G53" s="23"/>
       <c r="H53" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="16.5">
@@ -22677,7 +24751,7 @@
       </c>
       <c r="B55" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A55)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A55)</f>
@@ -22693,12 +24767,12 @@
       </c>
       <c r="F55" s="23">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55" s="23"/>
       <c r="H55" s="23">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="16.5">
@@ -22719,16 +24793,16 @@
       </c>
       <c r="E56" s="23">
         <f>COUNTIF(帮战总榜!A$1:X$151,$A56)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" s="23"/>
       <c r="H56" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="16.5">
@@ -22797,7 +24871,7 @@
       </c>
       <c r="B59" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A59)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A59)</f>
@@ -22813,12 +24887,12 @@
       </c>
       <c r="F59" s="23">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59" s="23"/>
       <c r="H59" s="23">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="16.5">
@@ -22857,7 +24931,7 @@
       </c>
       <c r="B61" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A61)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A61)</f>
@@ -22873,12 +24947,12 @@
       </c>
       <c r="F61" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" s="23"/>
       <c r="H61" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="16.5">
@@ -22887,7 +24961,7 @@
       </c>
       <c r="B62" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A62)</f>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="C62" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A62)</f>
@@ -22903,12 +24977,12 @@
       </c>
       <c r="F62" s="23">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G62" s="23"/>
       <c r="H62" s="23">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="16.5">
@@ -22917,7 +24991,7 @@
       </c>
       <c r="B63" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A63)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A63)</f>
@@ -22933,12 +25007,12 @@
       </c>
       <c r="F63" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" s="23"/>
       <c r="H63" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="16.5">
@@ -23697,7 +25771,7 @@
       </c>
       <c r="B89" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A89)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C89" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A89)</f>
@@ -23713,12 +25787,12 @@
       </c>
       <c r="F89" s="23">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G89" s="23"/>
       <c r="H89" s="23">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="16.5">
@@ -23967,7 +26041,7 @@
       </c>
       <c r="B98" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A98)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C98" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A98)</f>
@@ -23983,12 +26057,12 @@
       </c>
       <c r="F98" s="23">
         <f t="shared" ref="F98:F129" si="6">ROUNDDOWN(SUM(B98:E98),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G98" s="23"/>
       <c r="H98" s="23">
         <f t="shared" ref="H98:H129" si="7">IF($F98&gt;6,6,$F98)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="16.5">
@@ -24987,7 +27061,7 @@
       </c>
       <c r="B132" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A132)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C132" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A132)</f>
@@ -25017,7 +27091,7 @@
       </c>
       <c r="B133" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A133)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C133" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A133)</f>
@@ -25317,7 +27391,7 @@
       </c>
       <c r="B143" s="5">
         <f>0.5*COUNTIF(掠夺总榜!A$1:S$150,$A143)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="C143" s="23">
         <f>COUNTIF(盟会战!A$1:X$150,$A143)</f>
@@ -25333,12 +27407,12 @@
       </c>
       <c r="F143" s="23">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G143" s="23"/>
       <c r="H143" s="23">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="16.5">
@@ -25527,23 +27601,23 @@
       </c>
       <c r="B2" s="2">
         <f>('逐梦-箱子'!$L$2)</f>
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="C2" s="2">
         <f>('如梦-箱子'!$L$2)</f>
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2">
         <f>('若梦-箱子'!$L$2)</f>
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="E2" s="2">
         <f>('何梦-箱子'!$L$2)</f>
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="F2" s="2">
         <f>SUM(B2:E2)</f>
-        <v>133</v>
+        <v>480</v>
       </c>
       <c r="H2" s="4">
         <f>'何梦-箱子'!M2+'若梦-箱子'!M2+'如梦-箱子'!M2+'逐梦-箱子'!M2</f>
@@ -25556,23 +27630,23 @@
       </c>
       <c r="B3" s="13">
         <f>('逐梦-箱子'!$J$2)</f>
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="C3" s="13">
         <f>('如梦-箱子'!$J$2)</f>
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="D3" s="13">
         <f>('若梦-箱子'!$J$2)</f>
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="E3" s="13">
         <f>('何梦-箱子'!$J$2)</f>
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="F3" s="13">
         <f>SUM(B3:E3)</f>
-        <v>133</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:8">
